--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.14</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>0.86</v>
@@ -4189,7 +4189,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0.77</v>
@@ -7023,7 +7023,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR32" t="n">
         <v>0.87</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.86</v>
@@ -9421,7 +9421,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -9639,7 +9639,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.5</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>0.86</v>
@@ -11601,7 +11601,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>0.83</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12473,7 +12473,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.29</v>
@@ -12909,7 +12909,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13127,7 +13127,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.43</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.71</v>
@@ -15522,10 +15522,10 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>2.03</v>
@@ -16179,7 +16179,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.29</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR79" t="n">
         <v>1.88</v>
@@ -18356,7 +18356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.71</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.14</v>
@@ -19449,7 +19449,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR87" t="n">
         <v>1.42</v>
@@ -20321,7 +20321,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR91" t="n">
         <v>0.95</v>
@@ -21408,10 +21408,10 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.5</v>
@@ -22501,7 +22501,7 @@
         <v>2</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -22719,7 +22719,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -22937,7 +22937,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.43</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.14</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.43</v>
@@ -24681,7 +24681,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR111" t="n">
         <v>2.29</v>
@@ -26640,7 +26640,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.29</v>
@@ -26861,7 +26861,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -27512,7 +27512,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.43</v>
@@ -27733,7 +27733,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR125" t="n">
         <v>2.2</v>
@@ -27951,7 +27951,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR126" t="n">
         <v>1.71</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ127" t="n">
         <v>0.86</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.5</v>
@@ -29041,7 +29041,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.14</v>
@@ -31297,6 +31297,878 @@
       </c>
       <c r="BP141" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8238548</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>46003.69791666666</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>3</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X142" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8238443</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>46004.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S143" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8238549</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>46004.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8238480</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>46004.69791666666</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['11', '81']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S145" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X145" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.38</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.5</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.14</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.29</v>
@@ -9203,7 +9203,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -10729,7 +10729,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -11162,10 +11162,10 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11819,7 +11819,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.75</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.14</v>
@@ -13999,7 +13999,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14217,7 +14217,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -14435,7 +14435,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.5</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.57</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18359,7 +18359,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -19013,7 +19013,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR85" t="n">
         <v>1.57</v>
@@ -20103,7 +20103,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.86</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22062,7 +22062,7 @@
         <v>3</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ99" t="n">
         <v>2.14</v>
@@ -23155,7 +23155,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -23809,7 +23809,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24027,7 +24027,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.5</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.14</v>
@@ -27079,7 +27079,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -27297,7 +27297,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR123" t="n">
         <v>1.42</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -28823,7 +28823,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -31000,7 +31000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.14</v>
@@ -32169,6 +32169,660 @@
       </c>
       <c r="BP145" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8238447</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>46005.35416666666</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['34', '47']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['13', '77']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R146" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S146" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X146" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8238719</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>46005.45833333334</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['42', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S147" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V147" t="n">
+        <v>3</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X147" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8238713</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>46005.45833333334</v>
+      </c>
+      <c r="F148" t="n">
+        <v>15</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X148" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.29</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -5497,7 +5497,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.14</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -10075,7 +10075,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.57</v>
@@ -14653,7 +14653,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -14871,7 +14871,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.14</v>
@@ -16833,7 +16833,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.38</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.86</v>
@@ -20975,7 +20975,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -21193,7 +21193,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.5</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.5</v>
@@ -25335,7 +25335,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -27294,7 +27294,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.75</v>
@@ -28387,7 +28387,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.38</v>
@@ -30567,7 +30567,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -32823,6 +32823,442 @@
       </c>
       <c r="BP148" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8238729</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>46005.58333333334</v>
+      </c>
+      <c r="F149" t="n">
+        <v>15</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>2</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['6', '38']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8238446</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>46005.69791666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>15</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R150" t="n">
+        <v>2</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U150" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V150" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X150" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.5</v>
@@ -2881,7 +2881,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.43</v>
@@ -11383,7 +11383,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -12255,7 +12255,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -17484,7 +17484,7 @@
         <v>3</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.88</v>
@@ -19885,7 +19885,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR89" t="n">
         <v>1.81</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.14</v>
@@ -23373,7 +23373,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -26858,7 +26858,7 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.63</v>
@@ -28169,7 +28169,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.5</v>
@@ -34131,6 +34131,224 @@
       </c>
       <c r="BP154" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8238735</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46012.45833333334</v>
+      </c>
+      <c r="F155" t="n">
+        <v>16</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S155" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X155" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.38</v>
@@ -4843,7 +4843,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.5</v>
@@ -6151,7 +6151,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR26" t="n">
         <v>0.82</v>
@@ -8767,7 +8767,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR38" t="n">
         <v>1.01</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.13</v>
@@ -9857,7 +9857,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR43" t="n">
         <v>1.92</v>
@@ -10293,7 +10293,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR45" t="n">
         <v>0.95</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.88</v>
@@ -15304,7 +15304,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.14</v>
@@ -15961,7 +15961,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR71" t="n">
         <v>0.92</v>
@@ -17051,7 +17051,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR76" t="n">
         <v>1.01</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR84" t="n">
         <v>2.02</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -20539,7 +20539,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.5</v>
@@ -24463,7 +24463,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.38</v>
@@ -25553,7 +25553,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ115" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -27294,7 +27294,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.75</v>
@@ -27515,7 +27515,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR124" t="n">
         <v>1.07</v>
@@ -29695,7 +29695,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR134" t="n">
         <v>1.49</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.75</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.14</v>
@@ -34349,6 +34349,442 @@
       </c>
       <c r="BP155" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8238734</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46012.58333333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>16</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>5</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['21', '42', '45+5', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8238448</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46012.69791666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>16</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X157" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.14</v>
@@ -3535,7 +3535,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.13</v>
@@ -4189,7 +4189,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.87</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.13</v>
@@ -8985,7 +8985,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -10511,7 +10511,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR46" t="n">
         <v>1.01</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.5</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.13</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>2.23</v>
@@ -12909,7 +12909,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.38</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.5</v>
@@ -15743,7 +15743,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR70" t="n">
         <v>1.5</v>
@@ -16612,10 +16612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR79" t="n">
         <v>1.88</v>
@@ -18356,7 +18356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.5</v>
@@ -19667,7 +19667,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -20757,7 +20757,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR93" t="n">
         <v>1.65</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.63</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.5</v>
@@ -22501,7 +22501,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -22937,7 +22937,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.75</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.14</v>
@@ -24245,7 +24245,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -26640,10 +26640,10 @@
         <v>1.2</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.33</v>
@@ -27512,7 +27512,7 @@
         <v>1.17</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.25</v>
@@ -27733,7 +27733,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR125" t="n">
         <v>2.2</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.13</v>
@@ -28605,7 +28605,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -29259,7 +29259,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR132" t="n">
         <v>1.34</v>
@@ -29477,7 +29477,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR133" t="n">
         <v>2.1</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.14</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.63</v>
@@ -31654,7 +31654,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.33</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1</v>
@@ -32093,7 +32093,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -33401,7 +33401,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR151" t="n">
         <v>1.6</v>
@@ -34785,6 +34785,660 @@
       </c>
       <c r="BP157" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8238776</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46018.35416666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S158" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V158" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X158" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8238554</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46018.45833333334</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>3</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['45', '66']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S159" t="n">
+        <v>5</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8238774</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>46018.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['20', '66', '75']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>5</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X160" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.75</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.14</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.13</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.14</v>
@@ -32744,7 +32744,7 @@
         <v>1.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.5</v>
@@ -35439,6 +35439,224 @@
       </c>
       <c r="BP160" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8238550</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>46018.58333333334</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>2</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S161" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X161" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.88</v>
@@ -4625,7 +4625,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.25</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.44</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.75</v>
@@ -14871,7 +14871,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -18141,7 +18141,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20975,7 +20975,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.33</v>
@@ -25335,7 +25335,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.14</v>
@@ -30567,7 +30567,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.14</v>
@@ -33183,7 +33183,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR150" t="n">
         <v>1.79</v>
@@ -35657,6 +35657,224 @@
       </c>
       <c r="BP161" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8238553</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>46018.69791666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>2</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['73', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>6</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S162" t="n">
+        <v>2</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.33</v>
@@ -2663,7 +2663,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.5</v>
@@ -10729,7 +10729,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.5</v>
@@ -14217,7 +14217,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.44</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.63</v>
@@ -19013,7 +19013,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR85" t="n">
         <v>1.57</v>
@@ -22062,7 +22062,7 @@
         <v>3</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.88</v>
@@ -23155,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -27297,7 +27297,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR123" t="n">
         <v>1.42</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ126" t="n">
         <v>1</v>
@@ -32308,7 +32308,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.38</v>
@@ -32529,7 +32529,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -35875,6 +35875,224 @@
       </c>
       <c r="BP162" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8238714</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>46019.35416666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['45+1', '48', '53']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S163" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X163" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.33</v>
@@ -5715,7 +5715,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.14</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.14</v>
@@ -9203,7 +9203,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -11165,7 +11165,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11819,7 +11819,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -13124,7 +13124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.63</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14435,7 +14435,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.25</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.13</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -19882,7 +19882,7 @@
         <v>1</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.13</v>
@@ -20103,7 +20103,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.56</v>
@@ -23809,7 +23809,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24024,10 +24024,10 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -25986,7 +25986,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.88</v>
@@ -27079,7 +27079,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -28823,7 +28823,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.33</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ135" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -32747,7 +32747,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.56</v>
@@ -35596,13 +35596,13 @@
         <v>4</v>
       </c>
       <c r="AV161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW161" t="n">
         <v>11</v>
       </c>
       <c r="AX161" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY161" t="n">
         <v>15</v>
@@ -35814,7 +35814,7 @@
         <v>0</v>
       </c>
       <c r="AV162" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW162" t="n">
         <v>8</v>
@@ -35826,7 +35826,7 @@
         <v>8</v>
       </c>
       <c r="AZ162" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA162" t="n">
         <v>2</v>
@@ -36093,6 +36093,442 @@
       </c>
       <c r="BP163" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8238552</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>46019.45833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>17</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['13', '45']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S164" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X164" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8238739</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>46019.58333333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>17</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="n">
+        <v>2</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X165" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.63</v>
@@ -5497,7 +5497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -10075,7 +10075,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -14653,7 +14653,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.14</v>
@@ -21193,7 +21193,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.33</v>
@@ -28387,7 +28387,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.44</v>
@@ -32090,7 +32090,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32965,7 +32965,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -36529,6 +36529,224 @@
       </c>
       <c r="BP165" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8238736</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>46019.69791666666</v>
+      </c>
+      <c r="F166" t="n">
+        <v>17</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S166" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U166" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V166" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X166" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP166" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.5</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.13</v>
@@ -7241,7 +7241,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR31" t="n">
         <v>2.05</v>
@@ -7677,7 +7677,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.38</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -13563,7 +13563,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>2.05</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.25</v>
@@ -17269,7 +17269,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.14</v>
@@ -22283,7 +22283,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100" t="n">
         <v>1.06</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.25</v>
@@ -24899,7 +24899,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -28820,7 +28820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.67</v>
@@ -31003,7 +31003,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR140" t="n">
         <v>1.44</v>
@@ -33398,7 +33398,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.33</v>
@@ -36746,6 +36746,224 @@
         <v>3.5</v>
       </c>
       <c r="BP166" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8238673</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>46020.69791666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>17</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>3</v>
+      </c>
+      <c r="L167" t="n">
+        <v>3</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>4</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['14', '19', '31']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R167" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S167" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X167" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BP167" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.44</v>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.14</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.25</v>
@@ -13781,7 +13781,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.5</v>
@@ -18577,7 +18577,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.33</v>
@@ -23591,7 +23591,7 @@
         <v>1</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -24896,7 +24896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -26425,7 +26425,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -30128,7 +30128,7 @@
         <v>2.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.88</v>
@@ -31221,7 +31221,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -34052,7 +34052,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.63</v>
@@ -36965,6 +36965,224 @@
       </c>
       <c r="BP167" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8238720</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46024.69791666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.67</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.56</v>
@@ -4843,7 +4843,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.25</v>
@@ -6151,7 +6151,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR26" t="n">
         <v>0.82</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>2.12</v>
@@ -8549,7 +8549,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -9421,7 +9421,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.33</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.13</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR45" t="n">
         <v>0.95</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -13127,7 +13127,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -13345,7 +13345,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR59" t="n">
         <v>1.27</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.25</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.56</v>
@@ -15304,10 +15304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR71" t="n">
         <v>0.92</v>
@@ -16179,7 +16179,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -17484,10 +17484,10 @@
         <v>3</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR78" t="n">
         <v>1.07</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.25</v>
@@ -18792,10 +18792,10 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
         <v>2.02</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.67</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -22065,7 +22065,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.13</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.33</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.44</v>
@@ -24463,7 +24463,7 @@
         <v>2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -25771,7 +25771,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -25989,7 +25989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR117" t="n">
         <v>1.01</v>
@@ -26858,10 +26858,10 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.33</v>
@@ -27294,7 +27294,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.67</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.07</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.44</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.44</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR136" t="n">
         <v>1.04</v>
@@ -30785,7 +30785,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -31439,7 +31439,7 @@
         <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR142" t="n">
         <v>1.14</v>
@@ -32090,7 +32090,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.25</v>
@@ -33834,10 +33834,10 @@
         <v>2.14</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR153" t="n">
         <v>2.14</v>
@@ -34055,7 +34055,7 @@
         <v>1</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR154" t="n">
         <v>1.15</v>
@@ -34270,7 +34270,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.13</v>
@@ -34491,7 +34491,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR156" t="n">
         <v>1.47</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.13</v>
@@ -36668,7 +36668,7 @@
         <v>2.14</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.25</v>
@@ -37183,6 +37183,1096 @@
       </c>
       <c r="BP168" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8238555</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46025.35416666666</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V169" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X169" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8238715</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>46025.45833333334</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R170" t="n">
+        <v>2</v>
+      </c>
+      <c r="S170" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X170" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8238558</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>46025.45833333334</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R171" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S171" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8238557</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>46025.58333333334</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S172" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X172" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8238737</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>46025.69791666666</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S173" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X173" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP173"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
         <v>0.67</v>
@@ -5715,7 +5715,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.67</v>
@@ -11165,7 +11165,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.13</v>
@@ -14435,7 +14435,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.56</v>
@@ -18359,7 +18359,7 @@
         <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ118" t="n">
         <v>1</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -30346,7 +30346,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.5</v>
@@ -32747,7 +32747,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.33</v>
@@ -36235,7 +36235,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -38272,6 +38272,224 @@
         <v>3.92</v>
       </c>
       <c r="BP173" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8238701</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>46026.35416666666</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['13', '32']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2</v>
+      </c>
+      <c r="S174" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X174" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="BP174" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.11</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.8</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6805,7 +6805,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>2.48</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.56</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.33</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.33</v>
@@ -9639,7 +9639,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.12</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.33</v>
@@ -12255,7 +12255,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -12470,10 +12470,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.67</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.18</v>
@@ -17702,7 +17702,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ79" t="n">
         <v>1</v>
@@ -17920,10 +17920,10 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.22</v>
@@ -19449,7 +19449,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR87" t="n">
         <v>1.42</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.44</v>
@@ -19885,7 +19885,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR89" t="n">
         <v>1.81</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.25</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22719,7 +22719,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -23373,7 +23373,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111" t="n">
         <v>1</v>
@@ -25117,7 +25117,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR113" t="n">
         <v>1.46</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.56</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.13</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.25</v>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -29041,7 +29041,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.33</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.13</v>
@@ -30349,7 +30349,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -31657,7 +31657,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.67</v>
@@ -33619,7 +33619,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR152" t="n">
         <v>1.53</v>
@@ -34273,7 +34273,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR155" t="n">
         <v>1.35</v>
@@ -34488,7 +34488,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.11</v>
@@ -38491,6 +38491,660 @@
       </c>
       <c r="BP174" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8238556</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>46026.45833333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S175" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U175" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="V175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X175" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8238451</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>46026.58333333334</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['10', '87', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X176" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8238738</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>46026.69791666666</v>
+      </c>
+      <c r="F177" t="n">
+        <v>18</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>3</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>4</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['39', '48', '74']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="R177" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S177" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U177" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X177" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3535,7 +3535,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.67</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.11</v>
@@ -8985,7 +8985,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.44</v>
@@ -12691,7 +12691,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>2.23</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.67</v>
@@ -16615,7 +16615,7 @@
         <v>1</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR74" t="n">
         <v>1.09</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20757,7 +20757,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.65</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.2</v>
@@ -26643,7 +26643,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR120" t="n">
         <v>1.33</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.25</v>
@@ -29477,7 +29477,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR133" t="n">
         <v>2.1</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.13</v>
@@ -33401,7 +33401,7 @@
         <v>2</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR151" t="n">
         <v>1.6</v>
@@ -35363,7 +35363,7 @@
         <v>1</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR160" t="n">
         <v>1.23</v>
@@ -35796,7 +35796,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.56</v>
@@ -39145,6 +39145,224 @@
       </c>
       <c r="BP177" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8238452</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>46028.45833333334</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['68', '76', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X178" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.8</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.25</v>
@@ -3971,7 +3971,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -8331,7 +8331,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR36" t="n">
         <v>2.12</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.11</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -13345,7 +13345,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR59" t="n">
         <v>1.27</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.33</v>
@@ -14871,7 +14871,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -17484,10 +17484,10 @@
         <v>3</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR78" t="n">
         <v>1.07</v>
@@ -18141,7 +18141,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18356,7 +18356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.8</v>
@@ -20975,7 +20975,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -22065,7 +22065,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.67</v>
@@ -25335,7 +25335,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25989,7 +25989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR117" t="n">
         <v>1.01</v>
@@ -26858,7 +26858,7 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.67</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.33</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.44</v>
@@ -30131,7 +30131,7 @@
         <v>1</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR136" t="n">
         <v>1.04</v>
@@ -30567,7 +30567,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.67</v>
@@ -33183,7 +33183,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR150" t="n">
         <v>1.79</v>
@@ -33837,7 +33837,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR153" t="n">
         <v>2.14</v>
@@ -34270,7 +34270,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.33</v>
@@ -35360,7 +35360,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.5</v>
@@ -35799,7 +35799,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR162" t="n">
         <v>1.12</v>
@@ -37758,7 +37758,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.13</v>
@@ -38197,7 +38197,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR173" t="n">
         <v>1.8</v>
@@ -39363,6 +39363,442 @@
       </c>
       <c r="BP178" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8238742</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>46028.58333333334</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['14', '71']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X179" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8238483</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>46028.69791666666</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3</v>
+      </c>
+      <c r="N180" t="n">
+        <v>3</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['16', '62', '63']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X180" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="290">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['87']</t>
   </si>
   <si>
+    <t>['4', '29']</t>
+  </si>
+  <si>
     <t>['17', '57']</t>
   </si>
   <si>
@@ -875,6 +878,12 @@
   </si>
   <si>
     <t>['50', '82']</t>
+  </si>
+  <si>
+    <t>['51', '88']</t>
+  </si>
+  <si>
+    <t>['28']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1701,7 +1710,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q3">
         <v>5.6</v>
@@ -1907,7 +1916,7 @@
         <v>91</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>1.95</v>
@@ -1985,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ4">
         <v>1.2</v>
@@ -2937,7 +2946,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>1.72</v>
@@ -3555,7 +3564,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3633,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3761,7 +3770,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>5.25</v>
@@ -4379,7 +4388,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -5203,7 +5212,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>1.75</v>
@@ -5821,7 +5830,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6027,7 +6036,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>4.2</v>
@@ -7135,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ29">
         <v>1.33</v>
@@ -7675,7 +7684,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q32">
         <v>3.55</v>
@@ -7881,7 +7890,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>2.39</v>
@@ -8087,7 +8096,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>6.5</v>
@@ -8293,7 +8302,7 @@
         <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>5.13</v>
@@ -8783,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ37">
         <v>1.13</v>
@@ -8911,7 +8920,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>4.15</v>
@@ -9117,7 +9126,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>3.15</v>
@@ -9323,7 +9332,7 @@
         <v>115</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>1.76</v>
@@ -9529,7 +9538,7 @@
         <v>116</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>1.7</v>
@@ -10147,7 +10156,7 @@
         <v>90</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>4.84</v>
@@ -10353,7 +10362,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>3.16</v>
@@ -10971,7 +10980,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>5.25</v>
@@ -11255,7 +11264,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49">
         <v>1.8</v>
@@ -11589,7 +11598,7 @@
         <v>90</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>4.13</v>
@@ -11795,7 +11804,7 @@
         <v>90</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>3.15</v>
@@ -12207,7 +12216,7 @@
         <v>124</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>2.42</v>
@@ -12619,7 +12628,7 @@
         <v>114</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.8</v>
@@ -12825,7 +12834,7 @@
         <v>126</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -13237,7 +13246,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.6</v>
@@ -13443,7 +13452,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.06</v>
@@ -14885,7 +14894,7 @@
         <v>90</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>3.95</v>
@@ -15503,7 +15512,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>2.25</v>
@@ -15581,7 +15590,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15787,7 +15796,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ71">
         <v>1.3</v>
@@ -15915,7 +15924,7 @@
         <v>133</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>1.77</v>
@@ -15993,7 +16002,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ72">
         <v>0.67</v>
@@ -16121,7 +16130,7 @@
         <v>134</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.73</v>
@@ -16739,7 +16748,7 @@
         <v>118</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>5.5</v>
@@ -16817,7 +16826,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ76">
         <v>1.33</v>
@@ -16945,7 +16954,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.98</v>
@@ -17151,7 +17160,7 @@
         <v>90</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>5.02</v>
@@ -17357,7 +17366,7 @@
         <v>137</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.8</v>
@@ -17563,7 +17572,7 @@
         <v>138</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>3.29</v>
@@ -18593,7 +18602,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>2.15</v>
@@ -18799,7 +18808,7 @@
         <v>143</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.1</v>
@@ -19005,7 +19014,7 @@
         <v>90</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>2.45</v>
@@ -19623,7 +19632,7 @@
         <v>145</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3.3</v>
@@ -20447,7 +20456,7 @@
         <v>147</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>6</v>
@@ -20525,7 +20534,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.7</v>
@@ -20653,7 +20662,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>6.75</v>
@@ -20859,7 +20868,7 @@
         <v>148</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.55</v>
@@ -21065,7 +21074,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2.2</v>
@@ -21271,7 +21280,7 @@
         <v>149</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>4.3</v>
@@ -21555,7 +21564,7 @@
         <v>3</v>
       </c>
       <c r="AP99">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ99">
         <v>1.8</v>
@@ -21683,7 +21692,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.1</v>
@@ -22919,7 +22928,7 @@
         <v>154</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>6</v>
@@ -23125,7 +23134,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2</v>
@@ -23537,7 +23546,7 @@
         <v>156</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>3.35</v>
@@ -24155,7 +24164,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24361,7 +24370,7 @@
         <v>90</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>3.65</v>
@@ -24567,7 +24576,7 @@
         <v>160</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24773,7 +24782,7 @@
         <v>161</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -24979,7 +24988,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.88</v>
@@ -25185,7 +25194,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>5.13</v>
@@ -25263,7 +25272,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
         <v>1.8</v>
@@ -25597,7 +25606,7 @@
         <v>90</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>2.62</v>
@@ -25803,7 +25812,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26009,7 +26018,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.7</v>
@@ -26421,7 +26430,7 @@
         <v>168</v>
       </c>
       <c r="P123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q123">
         <v>2.93</v>
@@ -26627,7 +26636,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>3.3</v>
@@ -26833,7 +26842,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q125">
         <v>1.7</v>
@@ -27117,7 +27126,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ126">
         <v>1</v>
@@ -27245,7 +27254,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>4.01</v>
@@ -27451,7 +27460,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q128">
         <v>8.699999999999999</v>
@@ -27863,7 +27872,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>3.25</v>
@@ -28069,7 +28078,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>2.03</v>
@@ -28687,7 +28696,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>5</v>
@@ -28971,7 +28980,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ135">
         <v>1</v>
@@ -29923,7 +29932,7 @@
         <v>162</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30129,7 +30138,7 @@
         <v>181</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>4.5</v>
@@ -31159,7 +31168,7 @@
         <v>185</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>1.93</v>
@@ -31237,7 +31246,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ146">
         <v>1.33</v>
@@ -31365,7 +31374,7 @@
         <v>186</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>2.71</v>
@@ -31777,7 +31786,7 @@
         <v>187</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q149">
         <v>5.6</v>
@@ -31983,7 +31992,7 @@
         <v>90</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q150">
         <v>3.9</v>
@@ -32807,7 +32816,7 @@
         <v>190</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>2.8</v>
@@ -33013,7 +33022,7 @@
         <v>90</v>
       </c>
       <c r="P155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>2.95</v>
@@ -33219,7 +33228,7 @@
         <v>191</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>2.7</v>
@@ -33837,7 +33846,7 @@
         <v>183</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q159">
         <v>2.59</v>
@@ -34043,7 +34052,7 @@
         <v>90</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>5</v>
@@ -34249,7 +34258,7 @@
         <v>101</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>3.96</v>
@@ -34455,7 +34464,7 @@
         <v>90</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34739,7 +34748,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AQ163">
         <v>0.7</v>
@@ -34867,7 +34876,7 @@
         <v>90</v>
       </c>
       <c r="P164" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q164">
         <v>6.2</v>
@@ -34945,7 +34954,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ164">
         <v>1.8</v>
@@ -35073,7 +35082,7 @@
         <v>151</v>
       </c>
       <c r="P165" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q165">
         <v>2.56</v>
@@ -36309,7 +36318,7 @@
         <v>196</v>
       </c>
       <c r="P171" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>2.6</v>
@@ -36927,7 +36936,7 @@
         <v>90</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q174">
         <v>4.55</v>
@@ -37339,7 +37348,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q176">
         <v>3.65</v>
@@ -37751,7 +37760,7 @@
         <v>90</v>
       </c>
       <c r="P178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -37957,7 +37966,7 @@
         <v>90</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q179">
         <v>5.85</v>
@@ -38163,7 +38172,7 @@
         <v>90</v>
       </c>
       <c r="P180" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q180">
         <v>5.25</v>
@@ -38369,7 +38378,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q181">
         <v>1.86</v>
@@ -38575,7 +38584,7 @@
         <v>90</v>
       </c>
       <c r="P182" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q182">
         <v>3.66</v>
@@ -38781,7 +38790,7 @@
         <v>90</v>
       </c>
       <c r="P183" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q183">
         <v>7.5</v>
@@ -38987,7 +38996,7 @@
         <v>201</v>
       </c>
       <c r="P184" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q184">
         <v>3.1</v>
@@ -39193,7 +39202,7 @@
         <v>202</v>
       </c>
       <c r="P185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39350,6 +39359,418 @@
       </c>
       <c r="BP185">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>8238732</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>46030.60416666666</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>80</v>
+      </c>
+      <c r="H186" t="s">
+        <v>74</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>4</v>
+      </c>
+      <c r="O186" t="s">
+        <v>203</v>
+      </c>
+      <c r="P186" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q186">
+        <v>3.22</v>
+      </c>
+      <c r="R186">
+        <v>1.9</v>
+      </c>
+      <c r="S186">
+        <v>4.1</v>
+      </c>
+      <c r="T186">
+        <v>1.53</v>
+      </c>
+      <c r="U186">
+        <v>2.38</v>
+      </c>
+      <c r="V186">
+        <v>3.55</v>
+      </c>
+      <c r="W186">
+        <v>1.27</v>
+      </c>
+      <c r="X186">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y186">
+        <v>1.02</v>
+      </c>
+      <c r="Z186">
+        <v>2.45</v>
+      </c>
+      <c r="AA186">
+        <v>2.9</v>
+      </c>
+      <c r="AB186">
+        <v>3.2</v>
+      </c>
+      <c r="AC186">
+        <v>1.06</v>
+      </c>
+      <c r="AD186">
+        <v>7</v>
+      </c>
+      <c r="AE186">
+        <v>1.47</v>
+      </c>
+      <c r="AF186">
+        <v>2.63</v>
+      </c>
+      <c r="AG186">
+        <v>2.55</v>
+      </c>
+      <c r="AH186">
+        <v>1.51</v>
+      </c>
+      <c r="AI186">
+        <v>2</v>
+      </c>
+      <c r="AJ186">
+        <v>1.72</v>
+      </c>
+      <c r="AK186">
+        <v>1.41</v>
+      </c>
+      <c r="AL186">
+        <v>0</v>
+      </c>
+      <c r="AM186">
+        <v>1.56</v>
+      </c>
+      <c r="AN186">
+        <v>1.13</v>
+      </c>
+      <c r="AO186">
+        <v>1</v>
+      </c>
+      <c r="AP186">
+        <v>1.11</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>1.04</v>
+      </c>
+      <c r="AS186">
+        <v>0.97</v>
+      </c>
+      <c r="AT186">
+        <v>2.01</v>
+      </c>
+      <c r="AU186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>7</v>
+      </c>
+      <c r="AX186">
+        <v>16</v>
+      </c>
+      <c r="AY186">
+        <v>12</v>
+      </c>
+      <c r="AZ186">
+        <v>21</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>4</v>
+      </c>
+      <c r="BC186">
+        <v>6</v>
+      </c>
+      <c r="BD186">
+        <v>1.85</v>
+      </c>
+      <c r="BE186">
+        <v>8</v>
+      </c>
+      <c r="BF186">
+        <v>2.35</v>
+      </c>
+      <c r="BG186">
+        <v>1.47</v>
+      </c>
+      <c r="BH186">
+        <v>2.67</v>
+      </c>
+      <c r="BI186">
+        <v>1.71</v>
+      </c>
+      <c r="BJ186">
+        <v>2.1</v>
+      </c>
+      <c r="BK186">
+        <v>2.17</v>
+      </c>
+      <c r="BL186">
+        <v>1.65</v>
+      </c>
+      <c r="BM186">
+        <v>2.73</v>
+      </c>
+      <c r="BN186">
+        <v>1.4</v>
+      </c>
+      <c r="BO186">
+        <v>4</v>
+      </c>
+      <c r="BP186">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>8238450</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>46030.69791666666</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>72</v>
+      </c>
+      <c r="H187" t="s">
+        <v>70</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>198</v>
+      </c>
+      <c r="P187" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q187">
+        <v>1.93</v>
+      </c>
+      <c r="R187">
+        <v>2.3</v>
+      </c>
+      <c r="S187">
+        <v>6.75</v>
+      </c>
+      <c r="T187">
+        <v>1.46</v>
+      </c>
+      <c r="U187">
+        <v>2.8</v>
+      </c>
+      <c r="V187">
+        <v>2.85</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>8</v>
+      </c>
+      <c r="Y187">
+        <v>1.04</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>4.2</v>
+      </c>
+      <c r="AB187">
+        <v>8.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.07</v>
+      </c>
+      <c r="AD187">
+        <v>8</v>
+      </c>
+      <c r="AE187">
+        <v>1.35</v>
+      </c>
+      <c r="AF187">
+        <v>3.01</v>
+      </c>
+      <c r="AG187">
+        <v>2.22</v>
+      </c>
+      <c r="AH187">
+        <v>1.83</v>
+      </c>
+      <c r="AI187">
+        <v>2.29</v>
+      </c>
+      <c r="AJ187">
+        <v>1.56</v>
+      </c>
+      <c r="AK187">
+        <v>1.25</v>
+      </c>
+      <c r="AL187">
+        <v>0</v>
+      </c>
+      <c r="AM187">
+        <v>2.74</v>
+      </c>
+      <c r="AN187">
+        <v>2.22</v>
+      </c>
+      <c r="AO187">
+        <v>1</v>
+      </c>
+      <c r="AP187">
+        <v>2.1</v>
+      </c>
+      <c r="AQ187">
+        <v>1</v>
+      </c>
+      <c r="AR187">
+        <v>1.63</v>
+      </c>
+      <c r="AS187">
+        <v>1.22</v>
+      </c>
+      <c r="AT187">
+        <v>2.85</v>
+      </c>
+      <c r="AU187">
+        <v>8</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>24</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>32</v>
+      </c>
+      <c r="AZ187">
+        <v>7</v>
+      </c>
+      <c r="BA187">
+        <v>12</v>
+      </c>
+      <c r="BB187">
+        <v>1</v>
+      </c>
+      <c r="BC187">
+        <v>13</v>
+      </c>
+      <c r="BD187">
+        <v>1.23</v>
+      </c>
+      <c r="BE187">
+        <v>9</v>
+      </c>
+      <c r="BF187">
+        <v>4.33</v>
+      </c>
+      <c r="BG187">
+        <v>1.35</v>
+      </c>
+      <c r="BH187">
+        <v>2.95</v>
+      </c>
+      <c r="BI187">
+        <v>1.64</v>
+      </c>
+      <c r="BJ187">
+        <v>2.26</v>
+      </c>
+      <c r="BK187">
+        <v>2.4</v>
+      </c>
+      <c r="BL187">
+        <v>1.78</v>
+      </c>
+      <c r="BM187">
+        <v>2.48</v>
+      </c>
+      <c r="BN187">
+        <v>1.48</v>
+      </c>
+      <c r="BO187">
+        <v>3.26</v>
+      </c>
+      <c r="BP187">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -2445,7 +2445,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.7</v>
@@ -6805,7 +6805,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR29" t="n">
         <v>2.48</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.25</v>
@@ -9421,7 +9421,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.2</v>
@@ -10947,7 +10947,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR48" t="n">
         <v>1.12</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.7</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR67" t="n">
         <v>1.18</v>
@@ -16179,7 +16179,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17923,7 +17923,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR80" t="n">
         <v>1.22</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.7</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21847,7 +21847,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -25114,10 +25114,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR113" t="n">
         <v>1.46</v>
@@ -26861,7 +26861,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.33</v>
@@ -30349,7 +30349,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -31000,7 +31000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -31439,7 +31439,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR142" t="n">
         <v>1.14</v>
@@ -32744,7 +32744,7 @@
         <v>1.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.8</v>
@@ -34055,7 +34055,7 @@
         <v>1</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR154" t="n">
         <v>1.15</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ161" t="n">
         <v>1</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.3</v>
@@ -37543,7 +37543,7 @@
         <v>0.7</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AR170" t="n">
         <v>1.29</v>
@@ -39069,7 +39069,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR177" t="n">
         <v>2.01</v>
@@ -41325,6 +41325,442 @@
       </c>
       <c r="BP187" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8238721</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>46032.45833333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>2</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>3</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['19', '40']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['13', '67']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R188" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S188" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V188" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL188" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM188" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN188" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO188" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BP188" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>8238779</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>46032.45833333334</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="Q189" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R189" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S189" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T189" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U189" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V189" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X189" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC189" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH189" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM189" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP189" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AQ189" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR189" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS189" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT189" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU189" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV189" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW189" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX189" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ189" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA189" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB189" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC189" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD189" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE189" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BF189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG189" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BH189" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI189" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BJ189" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK189" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL189" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM189" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN189" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO189" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="BP189" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP189"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.3</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.7</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.7</v>
@@ -11383,7 +11383,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -11819,7 +11819,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -12255,7 +12255,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.5</v>
@@ -13999,7 +13999,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.33</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
         <v>1</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.25</v>
@@ -19228,7 +19228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.13</v>
@@ -19885,7 +19885,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.81</v>
@@ -20103,7 +20103,7 @@
         <v>1</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -23373,7 +23373,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -23806,10 +23806,10 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.3</v>
@@ -27079,7 +27079,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -28169,7 +28169,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.5</v>
@@ -28820,7 +28820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.8</v>
@@ -32090,7 +32090,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -33398,7 +33398,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.5</v>
@@ -34273,7 +34273,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR155" t="n">
         <v>1.35</v>
@@ -36453,7 +36453,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR165" t="n">
         <v>1.72</v>
@@ -36668,7 +36668,7 @@
         <v>2.14</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.33</v>
@@ -36886,7 +36886,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -38194,7 +38194,7 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.8</v>
@@ -38851,7 +38851,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -41500,10 +41500,10 @@
         <v>3</v>
       </c>
       <c r="BB188" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD188" t="n">
         <v>1.53</v>
@@ -41761,6 +41761,442 @@
       </c>
       <c r="BP189" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>8238747</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>46032.58333333334</v>
+      </c>
+      <c r="F190" t="n">
+        <v>20</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>2</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>['76', '79']</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q190" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R190" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S190" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U190" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V190" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X190" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM190" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP190" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ190" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR190" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS190" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT190" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU190" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV190" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW190" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX190" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA190" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB190" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC190" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD190" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE190" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF190" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG190" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH190" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BI190" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ190" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK190" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BL190" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM190" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN190" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BP190" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>8238709</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>46032.69791666666</v>
+      </c>
+      <c r="F191" t="n">
+        <v>20</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>2</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>['13', '90+5']</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q191" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S191" t="n">
+        <v>6</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U191" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V191" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X191" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP191" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ191" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR191" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS191" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT191" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU191" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV191" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW191" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX191" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ191" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA191" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB191" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC191" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD191" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE191" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF191" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BG191" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH191" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI191" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ191" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK191" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL191" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP191" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.2</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.7</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.3</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.33</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>0.77</v>
@@ -7020,10 +7020,10 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR32" t="n">
         <v>0.87</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.7</v>
@@ -8113,7 +8113,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -8549,7 +8549,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.5</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -9639,7 +9639,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.3</v>
@@ -11165,7 +11165,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR51" t="n">
         <v>0.83</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -12470,10 +12470,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -12909,7 +12909,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.8</v>
@@ -13778,10 +13778,10 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>2.11</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>2.25</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.2</v>
@@ -14435,7 +14435,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -15304,10 +15304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -15525,7 +15525,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR69" t="n">
         <v>2.03</v>
@@ -17702,10 +17702,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR79" t="n">
         <v>1.88</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.3</v>
@@ -18356,10 +18356,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -18577,7 +18577,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -18792,7 +18792,7 @@
         <v>1.75</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.3</v>
@@ -19231,7 +19231,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR87" t="n">
         <v>1.42</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.5</v>
@@ -20321,7 +20321,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>0.95</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.33</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ97" t="n">
         <v>1</v>
@@ -22501,7 +22501,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -22719,7 +22719,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -22937,7 +22937,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.7</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.2</v>
@@ -23591,7 +23591,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.5</v>
@@ -24678,10 +24678,10 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR111" t="n">
         <v>2.29</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.7</v>
@@ -25768,10 +25768,10 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -26422,10 +26422,10 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -27294,7 +27294,7 @@
         <v>0.5</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.7</v>
@@ -27730,10 +27730,10 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR125" t="n">
         <v>2.2</v>
@@ -27951,7 +27951,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR126" t="n">
         <v>1.71</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.2</v>
@@ -28823,7 +28823,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -29041,7 +29041,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.5</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.33</v>
@@ -30785,7 +30785,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -31221,7 +31221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.7</v>
@@ -31657,7 +31657,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -31875,7 +31875,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR144" t="n">
         <v>1.14</v>
@@ -32093,7 +32093,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.7</v>
@@ -32747,7 +32747,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.33</v>
@@ -33619,7 +33619,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR152" t="n">
         <v>1.53</v>
@@ -33834,7 +33834,7 @@
         <v>2.14</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.8</v>
@@ -34488,7 +34488,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.3</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.33</v>
@@ -35145,7 +35145,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR159" t="n">
         <v>1.33</v>
@@ -35360,7 +35360,7 @@
         <v>1.13</v>
       </c>
       <c r="AP160" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.5</v>
@@ -35581,7 +35581,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR161" t="n">
         <v>1.57</v>
@@ -36235,7 +36235,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -37107,7 +37107,7 @@
         <v>1</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37540,7 +37540,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.7</v>
@@ -37761,7 +37761,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ172" t="n">
         <v>1</v>
@@ -38415,7 +38415,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38630,10 +38630,10 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR175" t="n">
         <v>1.54</v>
@@ -38848,7 +38848,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.2</v>
@@ -39066,7 +39066,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.3</v>
@@ -39502,7 +39502,7 @@
         <v>1.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.8</v>
@@ -41031,7 +41031,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR186" t="n">
         <v>1.04</v>
@@ -42197,6 +42197,1314 @@
       </c>
       <c r="BP191" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>8238703</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>46033.35416666666</v>
+      </c>
+      <c r="F192" t="n">
+        <v>20</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>['64', '72']</t>
+        </is>
+      </c>
+      <c r="Q192" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R192" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S192" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U192" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V192" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X192" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AC192" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE192" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF192" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG192" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AH192" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM192" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP192" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR192" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS192" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT192" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU192" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV192" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW192" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ192" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB192" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC192" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD192" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE192" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG192" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH192" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BI192" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ192" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BK192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL192" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP192" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8238710</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>46033.45833333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S193" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V193" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X193" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL193" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BP193" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8238567</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>46033.58333333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>20</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X194" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL194" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BP194" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8238777</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>46033.69791666666</v>
+      </c>
+      <c r="F195" t="n">
+        <v>20</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['9', '73']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['26', '81']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2</v>
+      </c>
+      <c r="S195" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V195" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X195" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BL195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP195" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>8238559</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>46034.60416666666</v>
+      </c>
+      <c r="F196" t="n">
+        <v>20</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['7', '75', '78']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S196" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V196" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X196" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL196" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP196" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>8238733</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>46034.69791666666</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>3</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>3</v>
+      </c>
+      <c r="L197" t="n">
+        <v>5</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>5</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['12', '15', '35', '48', '64']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S197" t="n">
+        <v>9</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U197" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V197" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X197" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL197" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP197" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.91</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -8549,7 +8549,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.7</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.33</v>
@@ -19231,7 +19231,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR86" t="n">
         <v>1.68</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.5</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.33</v>
@@ -25771,7 +25771,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.7</v>
@@ -30785,7 +30785,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -37761,7 +37761,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.7</v>
@@ -42339,7 +42339,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR192" t="n">
         <v>1.2</v>
@@ -43505,6 +43505,224 @@
       </c>
       <c r="BP197" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8238449</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>46036.60416666666</v>
+      </c>
+      <c r="F198" t="n">
+        <v>16</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S198" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U198" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="V198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X198" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BP198" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP198"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.2</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.3</v>
@@ -6369,7 +6369,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27" t="n">
         <v>2.26</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.2</v>
@@ -12037,7 +12037,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53" t="n">
         <v>1.08</v>
@@ -12470,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.09</v>
@@ -16397,7 +16397,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR73" t="n">
         <v>1.64</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.5</v>
@@ -21629,7 +21629,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR97" t="n">
         <v>1.39</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -26207,7 +26207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR118" t="n">
         <v>1.3</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.11</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.5</v>
@@ -29913,7 +29913,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR135" t="n">
         <v>1.03</v>
@@ -37979,7 +37979,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR172" t="n">
         <v>2.1</v>
@@ -39066,7 +39066,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.3</v>
@@ -42990,7 +42990,7 @@
         <v>1.8</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.73</v>
@@ -43723,6 +43723,224 @@
       </c>
       <c r="BP198" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8238775</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>46036.69791666666</v>
+      </c>
+      <c r="F199" t="n">
+        <v>16</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R199" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S199" t="n">
+        <v>11</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U199" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X199" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL199" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BP199" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.2</v>
@@ -3317,7 +3317,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR29" t="n">
         <v>2.48</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.09</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.7</v>
@@ -8113,7 +8113,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.09</v>
@@ -10947,7 +10947,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR48" t="n">
         <v>1.12</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -13781,7 +13781,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.7</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR67" t="n">
         <v>1.18</v>
@@ -16262,7 +16262,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>8238540</v>
+        <v>8238677</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -16282,194 +16282,194 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>['16', '37', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>['59', '90+6']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>2.73</v>
+        <v>4.2</v>
       </c>
       <c r="R73" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="S73" t="n">
-        <v>5.3</v>
+        <v>2.45</v>
       </c>
       <c r="T73" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="U73" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="V73" t="n">
-        <v>3.54</v>
+        <v>2.9</v>
       </c>
       <c r="W73" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X73" t="n">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA73" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AK73" t="n">
-        <v>1.29</v>
+        <v>1.9</v>
       </c>
       <c r="AL73" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AM73" t="n">
-        <v>1.95</v>
+        <v>1.18</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO73" t="n">
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.64</v>
+        <v>1.09</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.02</v>
+        <v>1.54</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.66</v>
+        <v>2.63</v>
       </c>
       <c r="AU73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX73" t="n">
         <v>4</v>
       </c>
-      <c r="AV73" t="n">
+      <c r="AY73" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA73" t="n">
         <v>3</v>
       </c>
-      <c r="AW73" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY73" t="n">
+      <c r="BB73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE73" t="n">
         <v>8</v>
       </c>
-      <c r="AZ73" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>7.5</v>
-      </c>
       <c r="BF73" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="BG73" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="BH73" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="BI73" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="BJ73" t="n">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="BK73" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="BL73" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BM73" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="BN73" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="BO73" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="BP73" t="n">
         <v>1.29</v>
@@ -16480,7 +16480,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>8238677</v>
+        <v>8238540</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -16500,194 +16500,194 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['16', '37', '89']</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['59', '90+6']</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>4.2</v>
+        <v>2.73</v>
       </c>
       <c r="R74" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="S74" t="n">
-        <v>2.45</v>
+        <v>5.3</v>
       </c>
       <c r="T74" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="U74" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="V74" t="n">
-        <v>2.9</v>
+        <v>3.54</v>
       </c>
       <c r="W74" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X74" t="n">
-        <v>8.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z74" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="AA74" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB74" t="n">
-        <v>1.87</v>
+        <v>4.48</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AD74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AF74" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="AG74" t="n">
-        <v>2.08</v>
+        <v>2.43</v>
       </c>
       <c r="AH74" t="n">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AI74" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="AJ74" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AK74" t="n">
-        <v>1.9</v>
+        <v>1.29</v>
       </c>
       <c r="AL74" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AM74" t="n">
-        <v>1.18</v>
+        <v>1.95</v>
       </c>
       <c r="AN74" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO74" t="n">
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR74" t="n">
-        <v>1.09</v>
+        <v>1.64</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.63</v>
+        <v>2.66</v>
       </c>
       <c r="AU74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV74" t="n">
         <v>3</v>
       </c>
-      <c r="AV74" t="n">
-        <v>2</v>
-      </c>
       <c r="AW74" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA74" t="n">
         <v>4</v>
       </c>
-      <c r="AY74" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA74" t="n">
+      <c r="BB74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF74" t="n">
         <v>3</v>
       </c>
-      <c r="BB74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>6</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF74" t="n">
-        <v>1.65</v>
-      </c>
       <c r="BG74" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="BH74" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="BI74" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="BJ74" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="BK74" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="BL74" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="BM74" t="n">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="BN74" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="BO74" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="BP74" t="n">
         <v>1.29</v>
@@ -17352,7 +17352,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>8238678</v>
+        <v>8238685</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -17372,197 +17372,197 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23', '59']</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>['16']</t>
+          <t>['77', '90+2']</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>5.02</v>
+        <v>2.8</v>
       </c>
       <c r="R78" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>2.61</v>
+        <v>4</v>
       </c>
       <c r="T78" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U78" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="V78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X78" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH78" t="n">
         <v>2.9</v>
       </c>
-      <c r="W78" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X78" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF78" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BG78" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>2.75</v>
-      </c>
       <c r="BI78" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="BJ78" t="n">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="BK78" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BL78" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BM78" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="BN78" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BO78" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="BP78" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="79">
@@ -17570,7 +17570,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>8238685</v>
+        <v>8238678</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -17590,197 +17590,197 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['23', '59']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>['77', '90+2']</t>
+          <t>['16']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>2.8</v>
+        <v>5.02</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S79" t="n">
-        <v>4</v>
+        <v>2.61</v>
       </c>
       <c r="T79" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="U79" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="V79" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="W79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X79" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL79" t="n">
         <v>1.29</v>
       </c>
-      <c r="X79" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AH79" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AL79" t="n">
+      <c r="AM79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS79" t="n">
         <v>1.35</v>
       </c>
-      <c r="AM79" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AT79" t="n">
-        <v>2.96</v>
+        <v>2.42</v>
       </c>
       <c r="AU79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA79" t="n">
         <v>6</v>
       </c>
-      <c r="AV79" t="n">
+      <c r="BB79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD79" t="n">
         <v>3</v>
       </c>
-      <c r="AW79" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>10</v>
-      </c>
-      <c r="AZ79" t="n">
+      <c r="BE79" t="n">
         <v>7</v>
       </c>
-      <c r="BA79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>8.4</v>
-      </c>
       <c r="BF79" t="n">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="BG79" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="BH79" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BI79" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="BJ79" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="BK79" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BL79" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="BM79" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="BN79" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="BO79" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BP79" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="80">
@@ -17923,7 +17923,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR80" t="n">
         <v>1.22</v>
@@ -18577,7 +18577,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -18660,7 +18660,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>8238542</v>
+        <v>8238679</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -18680,12 +18680,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -18708,169 +18708,169 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>['5', '67', '90+6']</t>
+          <t>['9', '62', '90+2']</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>['45+1']</t>
+          <t>['25']</t>
         </is>
       </c>
       <c r="Q84" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S84" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X84" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP84" t="n">
         <v>1.9</v>
       </c>
-      <c r="R84" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S84" t="n">
-        <v>7</v>
-      </c>
-      <c r="T84" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U84" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W84" t="n">
+      <c r="AQ84" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN84" t="n">
         <v>1.42</v>
       </c>
-      <c r="X84" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AN84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO84" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ84" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA84" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC84" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD84" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="BH84" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="BI84" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BJ84" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BK84" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="BL84" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BN84" t="n">
-        <v>1.7</v>
-      </c>
       <c r="BO84" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="BP84" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="85">
@@ -18878,7 +18878,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>8238679</v>
+        <v>8238543</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -18898,197 +18898,197 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
+        <v>2</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
         <v>3</v>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="n">
-        <v>4</v>
-      </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>['9', '62', '90+2']</t>
+          <t>['63', '81']</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>['25']</t>
+          <t>['86']</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R85" t="n">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="S85" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="T85" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U85" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="V85" t="n">
-        <v>3.23</v>
+        <v>2.75</v>
       </c>
       <c r="W85" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X85" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z85" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA85" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="AB85" t="n">
-        <v>6.35</v>
+        <v>7.5</v>
       </c>
       <c r="AC85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE85" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AF85" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="AG85" t="n">
-        <v>2.13</v>
+        <v>1.91</v>
       </c>
       <c r="AH85" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AI85" t="n">
-        <v>2.09</v>
+        <v>2.34</v>
       </c>
       <c r="AJ85" t="n">
         <v>1.7</v>
       </c>
       <c r="AK85" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AL85" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AM85" t="n">
-        <v>2.38</v>
+        <v>2.78</v>
       </c>
       <c r="AN85" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO85" t="n">
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.83</v>
+        <v>2.78</v>
       </c>
       <c r="AU85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV85" t="n">
         <v>5</v>
       </c>
-      <c r="AV85" t="n">
+      <c r="AW85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA85" t="n">
         <v>9</v>
       </c>
-      <c r="AW85" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX85" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY85" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ85" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA85" t="n">
-        <v>1</v>
-      </c>
       <c r="BB85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC85" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BD85" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="BE85" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="BF85" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="BG85" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="BH85" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="BI85" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BJ85" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="BK85" t="n">
-        <v>2.6</v>
+        <v>2.21</v>
       </c>
       <c r="BL85" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="BM85" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="BO85" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="BP85" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="86">
@@ -19096,7 +19096,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>8238543</v>
+        <v>8238542</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -19116,197 +19116,197 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>['63', '81']</t>
+          <t>['5', '67', '90+6']</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>['86']</t>
+          <t>['45+1']</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="R86" t="n">
         <v>2.25</v>
       </c>
       <c r="S86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T86" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U86" t="n">
         <v>2.9</v>
       </c>
       <c r="V86" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W86" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="X86" t="n">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="Y86" t="n">
         <v>1.08</v>
       </c>
       <c r="Z86" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AA86" t="n">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="AB86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC86" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD86" t="n">
         <v>9</v>
       </c>
       <c r="AE86" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AF86" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="AG86" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH86" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AI86" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="AJ86" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AK86" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="AL86" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM86" t="n">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="AN86" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.3</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.68</v>
+        <v>2.02</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="AU86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX86" t="n">
         <v>6</v>
       </c>
-      <c r="AV86" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AX86" t="n">
-        <v>3</v>
-      </c>
       <c r="AY86" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ86" t="n">
         <v>8</v>
       </c>
       <c r="BA86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD86" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="BE86" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="BF86" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="BG86" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH86" t="n">
-        <v>3.08</v>
+        <v>3.55</v>
       </c>
       <c r="BI86" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN86" t="n">
         <v>1.7</v>
       </c>
-      <c r="BJ86" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BK86" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="BL86" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BM86" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BN86" t="n">
-        <v>1.48</v>
-      </c>
       <c r="BO86" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="BP86" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="87">
@@ -19314,7 +19314,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>8238525</v>
+        <v>8238541</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -19334,31 +19334,31 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -19367,164 +19367,164 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>['4', '49']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q87" t="n">
         <v>2.45</v>
       </c>
       <c r="R87" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T87" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="U87" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="V87" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="W87" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y87" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="Z87" t="n">
         <v>1.85</v>
       </c>
       <c r="AA87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AB87" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AD87" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="AE87" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AF87" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="AG87" t="n">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AH87" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AI87" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AJ87" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AK87" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AL87" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM87" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO87" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.91</v>
+        <v>1.56</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.42</v>
+        <v>1.81</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.41</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.11</v>
+        <v>3.22</v>
       </c>
       <c r="AU87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW87" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY87" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ87" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB87" t="n">
         <v>3</v>
       </c>
       <c r="BC87" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD87" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BE87" t="n">
         <v>8.5</v>
       </c>
       <c r="BF87" t="n">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="BG87" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="BH87" t="n">
-        <v>2.7</v>
+        <v>2.97</v>
       </c>
       <c r="BI87" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="BJ87" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="BK87" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="BL87" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BO87" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP87" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="88">
@@ -19750,7 +19750,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>8238541</v>
+        <v>8238525</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -19770,31 +19770,31 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -19803,164 +19803,164 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['4', '49']</t>
         </is>
       </c>
       <c r="Q89" t="n">
         <v>2.45</v>
       </c>
       <c r="R89" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S89" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T89" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="U89" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V89" t="n">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="W89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X89" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y89" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="Z89" t="n">
         <v>1.85</v>
       </c>
       <c r="AA89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AB89" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="AC89" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AD89" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AE89" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AF89" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AG89" t="n">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AH89" t="n">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AI89" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="AJ89" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK89" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AL89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM89" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AN89" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.56</v>
+        <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.22</v>
+        <v>2.11</v>
       </c>
       <c r="AU89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW89" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AX89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY89" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ89" t="n">
         <v>11</v>
       </c>
-      <c r="AZ89" t="n">
-        <v>8</v>
-      </c>
       <c r="BA89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB89" t="n">
         <v>3</v>
       </c>
       <c r="BC89" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD89" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BE89" t="n">
         <v>8.5</v>
       </c>
       <c r="BF89" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="BG89" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="BH89" t="n">
-        <v>2.97</v>
+        <v>2.7</v>
       </c>
       <c r="BI89" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="BJ89" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="BK89" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="BL89" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="BM89" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="BN89" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="BO89" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP89" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="90">
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.33</v>
@@ -21847,7 +21847,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.91</v>
@@ -23591,7 +23591,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -25117,7 +25117,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR113" t="n">
         <v>1.46</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.3</v>
@@ -26425,7 +26425,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.2</v>
@@ -27162,7 +27162,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>8238707</v>
+        <v>8238442</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -27182,197 +27182,197 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Genoa</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>['40', '62']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['11', '65']</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="R123" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
-        <v>4.8</v>
+        <v>3.66</v>
       </c>
       <c r="T123" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="U123" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG123" t="n">
         <v>2.25</v>
       </c>
-      <c r="V123" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X123" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>4</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AH123" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="AI123" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ123" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="AK123" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AL123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ123" t="n">
         <v>1.3</v>
       </c>
-      <c r="AM123" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AO123" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP123" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AQ123" t="n">
-        <v>0.7</v>
-      </c>
       <c r="AR123" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="AU123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV123" t="n">
         <v>5</v>
       </c>
       <c r="AW123" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AX123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ123" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA123" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB123" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC123" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BD123" t="n">
-        <v>1.58</v>
+        <v>1.88</v>
       </c>
       <c r="BE123" t="n">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF123" t="n">
-        <v>3</v>
+        <v>2.43</v>
       </c>
       <c r="BG123" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="BH123" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="BI123" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="BJ123" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="BK123" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="BL123" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="BM123" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="BN123" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="BO123" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP123" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="124">
@@ -27380,7 +27380,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>8238442</v>
+        <v>8238707</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -27400,197 +27400,197 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['40', '62']</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['11', '65']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>3.3</v>
+        <v>2.93</v>
       </c>
       <c r="R124" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S124" t="n">
-        <v>3.66</v>
+        <v>4.8</v>
       </c>
       <c r="T124" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="U124" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="V124" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="W124" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X124" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="Z124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG124" t="n">
         <v>2.7</v>
       </c>
-      <c r="AA124" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB124" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AC124" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AD124" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF124" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AG124" t="n">
+      <c r="AH124" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI124" t="n">
         <v>2.25</v>
       </c>
-      <c r="AH124" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI124" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AJ124" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM124" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AN124" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO124" t="n">
-        <v>1.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.07</v>
+        <v>1.42</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="AU124" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV124" t="n">
         <v>5</v>
       </c>
       <c r="AW124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY124" t="n">
         <v>15</v>
       </c>
-      <c r="AX124" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY124" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ124" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
         <v>5</v>
       </c>
-      <c r="BB124" t="n">
-        <v>9</v>
-      </c>
-      <c r="BC124" t="n">
-        <v>14</v>
-      </c>
       <c r="BD124" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="BE124" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="BF124" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="BG124" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="BH124" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="BI124" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BJ124" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="BK124" t="n">
-        <v>1.87</v>
+        <v>2.62</v>
       </c>
       <c r="BL124" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="BM124" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="BN124" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="BO124" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="125">
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.33</v>
@@ -30349,7 +30349,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -31221,7 +31221,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -35010,7 +35010,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>8238554</v>
+        <v>8238774</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -35030,197 +35030,197 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
         <v>1</v>
       </c>
       <c r="K159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N159" t="n">
         <v>3</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>['27']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>['45', '66']</t>
+          <t>['20', '66', '75']</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
       <c r="R159" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S159" t="n">
-        <v>5</v>
+        <v>2.38</v>
       </c>
       <c r="T159" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="U159" t="n">
-        <v>2.59</v>
+        <v>2.53</v>
       </c>
       <c r="V159" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W159" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="X159" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.95</v>
+        <v>4.6</v>
       </c>
       <c r="AA159" t="n">
-        <v>3.29</v>
+        <v>3.37</v>
       </c>
       <c r="AB159" t="n">
-        <v>3.97</v>
+        <v>1.8</v>
       </c>
       <c r="AC159" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD159" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE159" t="n">
         <v>1.38</v>
       </c>
       <c r="AF159" t="n">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="AG159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ159" t="n">
         <v>2.12</v>
       </c>
-      <c r="AH159" t="n">
+      <c r="BK159" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL159" t="n">
         <v>1.72</v>
       </c>
-      <c r="AI159" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AJ159" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK159" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AL159" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AM159" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AN159" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AO159" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AP159" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AQ159" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AR159" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AS159" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AT159" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU159" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV159" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW159" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX159" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY159" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ159" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA159" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB159" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC159" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD159" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BE159" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BF159" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="BG159" t="n">
+      <c r="BM159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN159" t="n">
         <v>1.42</v>
       </c>
-      <c r="BH159" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BI159" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="BJ159" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="BK159" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="BL159" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="BM159" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="BN159" t="n">
-        <v>1.39</v>
-      </c>
       <c r="BO159" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="BP159" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160">
@@ -35228,7 +35228,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>8238774</v>
+        <v>8238554</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -35248,197 +35248,197 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" t="n">
         <v>1</v>
       </c>
       <c r="K160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160" t="n">
         <v>3</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27']</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>['20', '66', '75']</t>
+          <t>['45', '66']</t>
         </is>
       </c>
       <c r="Q160" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S160" t="n">
         <v>5</v>
       </c>
-      <c r="R160" t="n">
-        <v>2</v>
-      </c>
-      <c r="S160" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T160" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U160" t="n">
-        <v>2.53</v>
+        <v>2.59</v>
       </c>
       <c r="V160" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W160" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X160" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z160" t="n">
-        <v>4.6</v>
+        <v>1.95</v>
       </c>
       <c r="AA160" t="n">
-        <v>3.37</v>
+        <v>3.29</v>
       </c>
       <c r="AB160" t="n">
-        <v>1.8</v>
+        <v>3.97</v>
       </c>
       <c r="AC160" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD160" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE160" t="n">
         <v>1.38</v>
       </c>
       <c r="AF160" t="n">
-        <v>3.01</v>
+        <v>2.9</v>
       </c>
       <c r="AG160" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT160" t="n">
         <v>2.3</v>
       </c>
-      <c r="AH160" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AI160" t="n">
+      <c r="AU160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ160" t="n">
         <v>2.04</v>
       </c>
-      <c r="AJ160" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AK160" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AL160" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM160" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AN160" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO160" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AP160" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AQ160" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR160" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AS160" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AT160" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="AU160" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV160" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW160" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX160" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY160" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ160" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA160" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB160" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC160" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD160" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="BE160" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="BF160" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BG160" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="BH160" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BI160" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BJ160" t="n">
-        <v>2.12</v>
-      </c>
       <c r="BK160" t="n">
-        <v>2.34</v>
+        <v>2.59</v>
       </c>
       <c r="BL160" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="BM160" t="n">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="BN160" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="BO160" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="BP160" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="161">
@@ -37107,7 +37107,7 @@
         <v>1</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.3</v>
@@ -38848,7 +38848,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.2</v>
@@ -39069,7 +39069,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR177" t="n">
         <v>2.01</v>
@@ -40242,7 +40242,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>8238778</v>
+        <v>8238716</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -40262,197 +40262,197 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Inter Milan</t>
+          <t>Fiorentina</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M183" t="n">
         <v>2</v>
       </c>
       <c r="N183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['52', '90+5']</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>['42', '90+8']</t>
+          <t>['56', '89']</t>
         </is>
       </c>
       <c r="Q183" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="R183" t="n">
+        <v>2</v>
+      </c>
+      <c r="S183" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X183" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z183" t="n">
         <v>2.45</v>
       </c>
-      <c r="S183" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T183" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U183" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="V183" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W183" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="X183" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="Y183" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z183" t="n">
+      <c r="AA183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW183" t="n">
         <v>8</v>
       </c>
-      <c r="AA183" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB183" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AC183" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD183" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE183" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AG183" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH183" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI183" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AJ183" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK183" t="n">
+      <c r="AX183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP183" t="n">
         <v>1.2</v>
-      </c>
-      <c r="AL183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM183" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AN183" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO183" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AP183" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AQ183" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR183" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AS183" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AT183" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AU183" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV183" t="n">
-        <v>8</v>
-      </c>
-      <c r="AW183" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX183" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY183" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ183" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA183" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB183" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC183" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD183" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="BE183" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="BF183" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="BG183" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="BH183" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="BI183" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="BJ183" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BK183" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="BL183" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BM183" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BN183" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="BO183" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BP183" t="n">
-        <v>1.28</v>
       </c>
     </row>
     <row r="184">
@@ -40460,7 +40460,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>8238716</v>
+        <v>8238778</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -40480,197 +40480,197 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Fiorentina</t>
+          <t>Inter Milan</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>2</v>
       </c>
       <c r="N184" t="n">
+        <v>2</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['42', '90+8']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U184" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="V184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X184" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW184" t="n">
         <v>4</v>
       </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>['52', '90+5']</t>
-        </is>
-      </c>
-      <c r="P184" t="inlineStr">
-        <is>
-          <t>['56', '89']</t>
-        </is>
-      </c>
-      <c r="Q184" t="n">
+      <c r="AX184" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH184" t="n">
         <v>3.1</v>
       </c>
-      <c r="R184" t="n">
-        <v>2</v>
-      </c>
-      <c r="S184" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T184" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U184" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V184" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W184" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X184" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y184" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Z184" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AA184" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB184" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AC184" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD184" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="AE184" t="n">
+      <c r="BI184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN184" t="n">
         <v>1.41</v>
       </c>
-      <c r="AF184" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AG184" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH184" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI184" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AJ184" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AK184" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM184" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AN184" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AO184" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AP184" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ184" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AR184" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AS184" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AT184" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU184" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV184" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW184" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX184" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY184" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ184" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA184" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB184" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC184" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD184" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BE184" t="n">
-        <v>8</v>
-      </c>
-      <c r="BF184" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="BG184" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BH184" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="BI184" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BJ184" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BK184" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="BL184" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="BM184" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BN184" t="n">
-        <v>1.37</v>
-      </c>
       <c r="BO184" t="n">
-        <v>3.84</v>
+        <v>3.5</v>
       </c>
       <c r="BP184" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="185">
@@ -41332,7 +41332,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>8238721</v>
+        <v>8238779</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -41352,197 +41352,197 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Como</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N188" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>['19', '40']</t>
+          <t>['90+4']</t>
         </is>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>['13', '67']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="Q188" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="R188" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="S188" t="n">
-        <v>5.2</v>
+        <v>4.33</v>
       </c>
       <c r="T188" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U188" t="n">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="V188" t="n">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="W188" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="X188" t="n">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y188" t="n">
         <v>1.04</v>
       </c>
       <c r="Z188" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI188" t="n">
         <v>1.85</v>
       </c>
-      <c r="AA188" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB188" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="AC188" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AD188" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AF188" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AG188" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH188" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AI188" t="n">
-        <v>2.05</v>
-      </c>
       <c r="AJ188" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="AK188" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AL188" t="n">
         <v>0</v>
       </c>
       <c r="AM188" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AN188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO188" t="n">
         <v>1.33</v>
       </c>
-      <c r="AO188" t="n">
-        <v>0.67</v>
-      </c>
       <c r="AP188" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AQ188" t="n">
-        <v>0.7</v>
+        <v>1.45</v>
       </c>
       <c r="AR188" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>1.19</v>
       </c>
       <c r="AT188" t="n">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="AU188" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV188" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW188" t="n">
         <v>9</v>
       </c>
       <c r="AX188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ188" t="n">
         <v>7</v>
       </c>
-      <c r="AY188" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ188" t="n">
-        <v>14</v>
-      </c>
       <c r="BA188" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB188" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC188" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD188" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="BE188" t="n">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="BF188" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BG188" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="BH188" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="BI188" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="BJ188" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="BK188" t="n">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BL188" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BM188" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BN188" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BO188" t="n">
-        <v>3.81</v>
+        <v>4.46</v>
       </c>
       <c r="BP188" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="189">
@@ -41550,7 +41550,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>8238779</v>
+        <v>8238721</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -41570,197 +41570,197 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Como</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N189" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>['90+4']</t>
+          <t>['19', '40']</t>
         </is>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['13', '67']</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="R189" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="S189" t="n">
-        <v>4.33</v>
+        <v>5.2</v>
       </c>
       <c r="T189" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="U189" t="n">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="V189" t="n">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="W189" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="X189" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="Y189" t="n">
         <v>1.04</v>
       </c>
       <c r="Z189" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AA189" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB189" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="AC189" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD189" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE189" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AF189" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AG189" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH189" t="n">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="AI189" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AJ189" t="n">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="AK189" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AL189" t="n">
         <v>0</v>
       </c>
       <c r="AM189" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="AN189" t="n">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="AO189" t="n">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>2.11</v>
+        <v>1.3</v>
       </c>
       <c r="AQ189" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AR189" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="AU189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV189" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW189" t="n">
         <v>9</v>
       </c>
       <c r="AX189" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ189" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BA189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB189" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC189" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD189" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="BE189" t="n">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="BF189" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BG189" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="BH189" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="BI189" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="BJ189" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="BK189" t="n">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BL189" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BM189" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BN189" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BO189" t="n">
-        <v>4.46</v>
+        <v>3.81</v>
       </c>
       <c r="BP189" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="190">
@@ -42557,7 +42557,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ193" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AR193" t="n">
         <v>1.65</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.2</v>
@@ -43941,6 +43941,442 @@
       </c>
       <c r="BP199" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8238773</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>46037.60416666666</v>
+      </c>
+      <c r="F200" t="n">
+        <v>16</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3</v>
+      </c>
+      <c r="K200" t="n">
+        <v>4</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2</v>
+      </c>
+      <c r="M200" t="n">
+        <v>3</v>
+      </c>
+      <c r="N200" t="n">
+        <v>5</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['13', '71']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>['21', '29', '43']</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S200" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X200" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL200" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BP200" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8238731</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>46037.69791666666</v>
+      </c>
+      <c r="F201" t="n">
+        <v>16</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3</v>
+      </c>
+      <c r="N201" t="n">
+        <v>4</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['45+1', '55', '88']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X201" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL201" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BP201" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,7 +3753,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.8</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.3</v>
@@ -8767,7 +8767,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR38" t="n">
         <v>1.01</v>
@@ -9857,7 +9857,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR43" t="n">
         <v>1.92</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.7</v>
@@ -17051,7 +17051,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR76" t="n">
         <v>1.01</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.2</v>
@@ -20539,7 +20539,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.09</v>
@@ -25553,7 +25553,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.33</v>
@@ -29695,7 +29695,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR134" t="n">
         <v>1.49</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.3</v>
@@ -34709,7 +34709,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR157" t="n">
         <v>1.35</v>
@@ -35796,7 +35796,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.7</v>
@@ -39284,7 +39284,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.5</v>
@@ -40159,7 +40159,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR182" t="n">
         <v>1.72</v>
@@ -44377,6 +44377,224 @@
       </c>
       <c r="BP201" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8238569</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>46038.69791666666</v>
+      </c>
+      <c r="F202" t="n">
+        <v>21</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="R202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S202" t="n">
+        <v>2</v>
+      </c>
+      <c r="T202" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U202" t="n">
+        <v>3</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X202" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL202" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP202" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -44537,13 +44537,13 @@
         <v>4</v>
       </c>
       <c r="AW202" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX202" t="n">
         <v>5</v>
       </c>
       <c r="AY202" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ202" t="n">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.7</v>
@@ -3099,7 +3099,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.91</v>
@@ -4625,7 +4625,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -5497,7 +5497,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -7895,7 +7895,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.2</v>
@@ -9203,7 +9203,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.7</v>
@@ -10072,10 +10072,10 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -11819,7 +11819,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ57" t="n">
         <v>0.91</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ60" t="n">
         <v>1</v>
@@ -13999,7 +13999,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14653,7 +14653,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -14871,7 +14871,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.45</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.89</v>
@@ -16830,10 +16830,10 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -18141,7 +18141,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -20100,10 +20100,10 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.3</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.5</v>
@@ -20975,7 +20975,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -21193,7 +21193,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -23809,7 +23809,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24896,7 +24896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ112" t="n">
         <v>1</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.45</v>
@@ -25335,7 +25335,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.3</v>
@@ -27079,7 +27079,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -28387,7 +28387,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -30128,7 +30128,7 @@
         <v>2.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.8</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -31000,7 +31000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
         <v>1</v>
@@ -32311,7 +32311,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -32744,7 +32744,7 @@
         <v>1.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.73</v>
@@ -32965,7 +32965,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33183,7 +33183,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR150" t="n">
         <v>1.79</v>
@@ -34052,7 +34052,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.7</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.2</v>
@@ -35799,7 +35799,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR162" t="n">
         <v>1.12</v>
@@ -36453,7 +36453,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR165" t="n">
         <v>1.72</v>
@@ -36671,7 +36671,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR166" t="n">
         <v>1.93</v>
@@ -37104,7 +37104,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ168" t="n">
         <v>2.2</v>
@@ -39723,7 +39723,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AR180" t="n">
         <v>1.29</v>
@@ -39938,7 +39938,7 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ181" t="n">
         <v>0.7</v>
@@ -40595,7 +40595,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR184" t="n">
         <v>1.25</v>
@@ -41682,7 +41682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.7</v>
@@ -41903,7 +41903,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR190" t="n">
         <v>1.64</v>
@@ -43644,7 +43644,7 @@
         <v>1.33</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.3</v>
@@ -44595,6 +44595,660 @@
       </c>
       <c r="BP202" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8238723</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>46039.45833333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>21</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S203" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U203" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V203" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X203" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL203" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP203" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>8238745</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>46039.58333333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>21</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="R204" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V204" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X204" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BP204" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>8238484</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>46039.69791666666</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S205" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X205" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>19</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL205" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP205" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -45194,13 +45194,13 @@
         <v>2</v>
       </c>
       <c r="AX205" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY205" t="n">
         <v>3</v>
       </c>
       <c r="AZ205" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA205" t="n">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.09</v>
@@ -1791,7 +1791,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.3</v>
@@ -3971,7 +3971,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR27" t="n">
         <v>2.26</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.45</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR36" t="n">
         <v>2.12</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.3</v>
@@ -10511,7 +10511,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR46" t="n">
         <v>1.01</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.73</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.2</v>
@@ -12034,10 +12034,10 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR53" t="n">
         <v>1.08</v>
@@ -13124,7 +13124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.7</v>
@@ -13345,7 +13345,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR59" t="n">
         <v>1.27</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.73</v>
@@ -15740,10 +15740,10 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR70" t="n">
         <v>1.5</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.7</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.5</v>
@@ -16615,7 +16615,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR74" t="n">
         <v>1.64</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
         <v>1</v>
@@ -17705,7 +17705,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR79" t="n">
         <v>1.07</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.2</v>
@@ -19667,7 +19667,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.7</v>
@@ -21629,7 +21629,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR97" t="n">
         <v>1.39</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.45</v>
@@ -22062,10 +22062,10 @@
         <v>3</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.2</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.73</v>
@@ -24245,7 +24245,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -25989,7 +25989,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR117" t="n">
         <v>1.01</v>
@@ -26207,7 +26207,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR118" t="n">
         <v>1.3</v>
@@ -26640,7 +26640,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.5</v>
@@ -27294,7 +27294,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.3</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.2</v>
@@ -28605,7 +28605,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.09</v>
@@ -29259,7 +29259,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR132" t="n">
         <v>1.34</v>
@@ -29913,7 +29913,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR135" t="n">
         <v>1.03</v>
@@ -30131,7 +30131,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR136" t="n">
         <v>1.04</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.2</v>
@@ -31654,7 +31654,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.09</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.2</v>
@@ -32308,7 +32308,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.09</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.55</v>
@@ -33837,7 +33837,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR153" t="n">
         <v>2.14</v>
@@ -34924,10 +34924,10 @@
         <v>0.5</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR158" t="n">
         <v>1.24</v>
@@ -35360,7 +35360,7 @@
         <v>0.75</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ160" t="n">
         <v>0.91</v>
@@ -36014,7 +36014,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.7</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.09</v>
@@ -37979,7 +37979,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR172" t="n">
         <v>2.1</v>
@@ -38197,7 +38197,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR173" t="n">
         <v>1.8</v>
@@ -39505,7 +39505,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR179" t="n">
         <v>1.25</v>
@@ -40156,7 +40156,7 @@
         <v>1.13</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.3</v>
@@ -40377,7 +40377,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AR183" t="n">
         <v>1.35</v>
@@ -40592,7 +40592,7 @@
         <v>2.25</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ184" t="n">
         <v>2.4</v>
@@ -40810,7 +40810,7 @@
         <v>1.11</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.3</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ187" t="n">
         <v>1</v>
@@ -43865,7 +43865,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR199" t="n">
         <v>1.98</v>
@@ -45249,6 +45249,878 @@
       </c>
       <c r="BP205" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>8238746</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>46040.35416666666</v>
+      </c>
+      <c r="F206" t="n">
+        <v>21</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2</v>
+      </c>
+      <c r="S206" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X206" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL206" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP206" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>8238568</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>46040.45833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>21</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>2</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>3</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['19', '45']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="R207" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S207" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X207" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BP207" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>8238570</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>46040.58333333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>21</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['26', '72']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X208" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BP208" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>8238744</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>46040.69791666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>21</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S209" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U209" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X209" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL209" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP209" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -45627,13 +45627,13 @@
         <v>4</v>
       </c>
       <c r="AW207" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX207" t="n">
         <v>7</v>
       </c>
       <c r="AY207" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ207" t="n">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.09</v>
@@ -3535,7 +3535,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.91</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.3</v>
@@ -8985,7 +8985,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -10729,7 +10729,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.2</v>
@@ -12691,7 +12691,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR56" t="n">
         <v>2.23</v>
@@ -14217,7 +14217,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.3</v>
@@ -16397,7 +16397,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR73" t="n">
         <v>1.09</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.3</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.55</v>
@@ -18795,7 +18795,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -20757,7 +20757,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR93" t="n">
         <v>1.65</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.55</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.91</v>
@@ -23155,7 +23155,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -25986,7 +25986,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.91</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.8</v>
@@ -26643,7 +26643,7 @@
         <v>1</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR120" t="n">
         <v>1.33</v>
@@ -27515,7 +27515,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR124" t="n">
         <v>1.42</v>
@@ -29477,7 +29477,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR133" t="n">
         <v>2.1</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.8</v>
@@ -30346,7 +30346,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.45</v>
@@ -32529,7 +32529,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -33401,7 +33401,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR151" t="n">
         <v>1.6</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.09</v>
@@ -35145,7 +35145,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR159" t="n">
         <v>1.23</v>
@@ -36017,7 +36017,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR163" t="n">
         <v>1.68</v>
@@ -36232,7 +36232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.73</v>
@@ -38412,7 +38412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.73</v>
@@ -39287,7 +39287,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AR178" t="n">
         <v>1.1</v>
@@ -39941,7 +39941,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AR181" t="n">
         <v>1.54</v>
@@ -40374,7 +40374,7 @@
         <v>0.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ183" t="n">
         <v>0.73</v>
@@ -41028,7 +41028,7 @@
         <v>1</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ186" t="n">
         <v>0.91</v>
@@ -46121,6 +46121,442 @@
       </c>
       <c r="BP209" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>8238722</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>46041.60416666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>21</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R210" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V210" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X210" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BP210" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>8238477</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>46041.69791666666</v>
+      </c>
+      <c r="F211" t="n">
+        <v>21</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
+        <v>3</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['2', '24', '49']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="R211" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S211" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T211" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X211" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL211" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP211" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.2</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.3</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.09</v>
@@ -9421,7 +9421,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -12470,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.09</v>
@@ -13127,7 +13127,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -16179,7 +16179,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.73</v>
@@ -21411,7 +21411,7 @@
         <v>1</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.2</v>
@@ -26861,7 +26861,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.64</v>
@@ -31439,7 +31439,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR142" t="n">
         <v>1.14</v>
@@ -34055,7 +34055,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR154" t="n">
         <v>1.15</v>
@@ -37543,7 +37543,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR170" t="n">
         <v>1.29</v>
@@ -39066,7 +39066,7 @@
         <v>1.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ177" t="n">
         <v>1.45</v>
@@ -41685,7 +41685,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR189" t="n">
         <v>1.58</v>
@@ -42990,7 +42990,7 @@
         <v>1.8</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.73</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.8</v>
@@ -46557,6 +46557,224 @@
       </c>
       <c r="BP211" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>8238752</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>46045.69791666666</v>
+      </c>
+      <c r="F212" t="n">
+        <v>22</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2</v>
+      </c>
+      <c r="K212" t="n">
+        <v>5</v>
+      </c>
+      <c r="L212" t="n">
+        <v>6</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>8</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['39', '41', '45+2', '82', '86', '90+3']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['11', '23']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R212" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S212" t="n">
+        <v>11</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U212" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X212" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP212" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP212"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.2</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.09</v>
@@ -11383,7 +11383,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -12255,7 +12255,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.55</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.73</v>
@@ -19449,7 +19449,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR87" t="n">
         <v>1.81</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.91</v>
@@ -23373,7 +23373,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.09</v>
@@ -28169,7 +28169,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -34273,7 +34273,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR155" t="n">
         <v>1.35</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.3</v>
@@ -38851,7 +38851,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -41464,7 +41464,7 @@
         <v>1.33</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.45</v>
@@ -42121,7 +42121,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR191" t="n">
         <v>1.75</v>
@@ -44298,7 +44298,7 @@
         <v>2.11</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AQ201" t="n">
         <v>2.2</v>
@@ -46775,6 +46775,224 @@
       </c>
       <c r="BP212" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8238740</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>46046.45833333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>22</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>2</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2</v>
+      </c>
+      <c r="L213" t="n">
+        <v>6</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['8', '16', '59', '66', '70', '76']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S213" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U213" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V213" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X213" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BL213" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM213" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN213" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO213" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="BP213" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.2</v>
@@ -4189,7 +4189,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.73</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR28" t="n">
         <v>0.77</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR32" t="n">
         <v>0.87</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.64</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.45</v>
@@ -11601,7 +11601,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR51" t="n">
         <v>0.83</v>
@@ -12909,7 +12909,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.91</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.09</v>
@@ -15525,7 +15525,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR69" t="n">
         <v>2.03</v>
@@ -17487,7 +17487,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR78" t="n">
         <v>1.88</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.45</v>
@@ -18356,7 +18356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.73</v>
@@ -20321,7 +20321,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR91" t="n">
         <v>0.95</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.8</v>
@@ -22501,7 +22501,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -22937,7 +22937,7 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.73</v>
@@ -24681,7 +24681,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR111" t="n">
         <v>2.29</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.55</v>
@@ -27733,7 +27733,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR125" t="n">
         <v>2.2</v>
@@ -27951,7 +27951,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR126" t="n">
         <v>1.71</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.09</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.64</v>
@@ -31875,7 +31875,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR144" t="n">
         <v>1.14</v>
@@ -32093,7 +32093,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ145" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.73</v>
@@ -34488,7 +34488,7 @@
         <v>1.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.3</v>
@@ -35142,7 +35142,7 @@
         <v>1.13</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.64</v>
@@ -35363,7 +35363,7 @@
         <v>1</v>
       </c>
       <c r="AQ160" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR160" t="n">
         <v>1.33</v>
@@ -35581,7 +35581,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR161" t="n">
         <v>1.57</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ175" t="n">
         <v>1.09</v>
@@ -39502,7 +39502,7 @@
         <v>1.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.91</v>
@@ -41031,7 +41031,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ186" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR186" t="n">
         <v>1.04</v>
@@ -42336,7 +42336,7 @@
         <v>1.13</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.3</v>
@@ -42554,7 +42554,7 @@
         <v>2.25</v>
       </c>
       <c r="AP193" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AQ193" t="n">
         <v>2.2</v>
@@ -42775,7 +42775,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR194" t="n">
         <v>1.43</v>
@@ -43211,7 +43211,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ196" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AR196" t="n">
         <v>1.3</v>
@@ -46993,6 +46993,442 @@
       </c>
       <c r="BP213" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>8238566</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>46046.58333333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>22</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="n">
+        <v>2</v>
+      </c>
+      <c r="N214" t="n">
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>['31', '47']</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S214" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V214" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X214" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM214" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN214" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO214" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP214" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>8238571</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>46046.69791666666</v>
+      </c>
+      <c r="F215" t="n">
+        <v>22</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V215" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X215" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL215" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM215" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BN215" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO215" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="BP215" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP215"/>
+  <dimension ref="A1:BP216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.73</v>
@@ -1355,7 +1355,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.18</v>
@@ -7023,7 +7023,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>2</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.3</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -17702,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.91</v>
@@ -19885,7 +19885,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ100" t="n">
         <v>1</v>
@@ -22719,7 +22719,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -26858,7 +26858,7 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.64</v>
@@ -29041,7 +29041,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.73</v>
@@ -31657,7 +31657,7 @@
         <v>1</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -33619,7 +33619,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR152" t="n">
         <v>1.53</v>
@@ -34270,7 +34270,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.09</v>
@@ -37758,7 +37758,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.3</v>
@@ -38633,7 +38633,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR175" t="n">
         <v>1.54</v>
@@ -39720,7 +39720,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.55</v>
@@ -43429,7 +43429,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR197" t="n">
         <v>2.17</v>
@@ -47429,6 +47429,224 @@
       </c>
       <c r="BP215" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>8238711</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>46047.35416666666</v>
+      </c>
+      <c r="F216" t="n">
+        <v>22</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S216" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T216" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X216" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM216" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO216" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BP216" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP216"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.8</v>
@@ -1137,7 +1137,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.64</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.55</v>
@@ -5279,7 +5279,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ23" t="n">
         <v>2.4</v>
@@ -5715,7 +5715,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.8</v>
@@ -6805,7 +6805,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>2.48</v>
@@ -8549,7 +8549,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.3</v>
@@ -10947,7 +10947,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR48" t="n">
         <v>1.12</v>
@@ -11165,7 +11165,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.18</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.64</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.2</v>
@@ -14435,7 +14435,7 @@
         <v>1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -15089,7 +15089,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.18</v>
@@ -15304,10 +15304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.18</v>
@@ -17923,7 +17923,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR80" t="n">
         <v>1.22</v>
@@ -18359,7 +18359,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.2</v>
@@ -19013,7 +19013,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR85" t="n">
         <v>1.68</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.3</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -21847,7 +21847,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.09</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.09</v>
@@ -24027,7 +24027,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.73</v>
@@ -25117,7 +25117,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR113" t="n">
         <v>1.46</v>
@@ -25771,7 +25771,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -27512,7 +27512,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.73</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.08</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.73</v>
@@ -28823,7 +28823,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -30349,7 +30349,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -30785,7 +30785,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -32090,7 +32090,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ145" t="n">
         <v>1.08</v>
@@ -32747,7 +32747,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.4</v>
@@ -33834,7 +33834,7 @@
         <v>2.14</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.91</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.3</v>
@@ -36235,7 +36235,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -36668,7 +36668,7 @@
         <v>2.14</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.4</v>
@@ -37540,7 +37540,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.64</v>
@@ -37761,7 +37761,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.8</v>
@@ -38194,7 +38194,7 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.91</v>
@@ -38415,7 +38415,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -39069,7 +39069,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR177" t="n">
         <v>2.01</v>
@@ -41467,7 +41467,7 @@
         <v>2</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR188" t="n">
         <v>1.67</v>
@@ -42118,7 +42118,7 @@
         <v>1.33</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.09</v>
@@ -42339,7 +42339,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR192" t="n">
         <v>1.2</v>
@@ -42993,7 +42993,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AR195" t="n">
         <v>2.04</v>
@@ -43208,7 +43208,7 @@
         <v>1</v>
       </c>
       <c r="AP196" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.08</v>
@@ -43426,7 +43426,7 @@
         <v>1.2</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43647,7 +43647,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AR198" t="n">
         <v>1.56</v>
@@ -44083,7 +44083,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR200" t="n">
         <v>1.39</v>
@@ -47647,6 +47647,660 @@
       </c>
       <c r="BP216" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>8238749</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>46047.45833333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>22</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>3</v>
+      </c>
+      <c r="M217" t="n">
+        <v>2</v>
+      </c>
+      <c r="N217" t="n">
+        <v>5</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['62', '78', '90+1']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['35', '47']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S217" t="n">
+        <v>3</v>
+      </c>
+      <c r="T217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V217" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X217" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM217" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP217" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8238748</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>46047.45833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>22</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>4</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['15', '24', '73', '90+2']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S218" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U218" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V218" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X218" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN218" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO218" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP218" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>8238750</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>46047.58333333334</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>3</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>3</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['22', '77', '86']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X219" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL219" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN219" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP219" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.33</v>
@@ -3317,7 +3317,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.09</v>
@@ -8113,7 +8113,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.73</v>
@@ -13781,7 +13781,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.4</v>
@@ -18577,7 +18577,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.18</v>
@@ -23591,7 +23591,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.3</v>
@@ -26425,7 +26425,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -28820,7 +28820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.58</v>
@@ -31221,7 +31221,7 @@
         <v>1</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -33398,7 +33398,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.64</v>
@@ -36886,7 +36886,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ167" t="n">
         <v>1</v>
@@ -37107,7 +37107,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -41900,7 +41900,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.09</v>
@@ -42557,7 +42557,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ193" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR193" t="n">
         <v>1.65</v>
@@ -44301,7 +44301,7 @@
         <v>2</v>
       </c>
       <c r="AQ201" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AR201" t="n">
         <v>1.62</v>
@@ -48301,6 +48301,224 @@
       </c>
       <c r="BP219" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>8238572</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>46047.69791666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>22</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R220" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S220" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="T220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM220" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN220" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO220" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP220" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -6151,7 +6151,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR26" t="n">
         <v>0.82</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.55</v>
@@ -10293,7 +10293,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR45" t="n">
         <v>0.95</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.09</v>
@@ -15961,7 +15961,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR71" t="n">
         <v>0.92</v>
@@ -17484,7 +17484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.08</v>
@@ -19231,7 +19231,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR86" t="n">
         <v>2.02</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.4</v>
@@ -24463,7 +24463,7 @@
         <v>2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.18</v>
@@ -27297,7 +27297,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR123" t="n">
         <v>1.07</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.3</v>
@@ -34491,7 +34491,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR156" t="n">
         <v>1.47</v>
@@ -37325,7 +37325,7 @@
         <v>2</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR169" t="n">
         <v>1.68</v>
@@ -38848,7 +38848,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.09</v>
@@ -40813,7 +40813,7 @@
         <v>1</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR185" t="n">
         <v>1.44</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.18</v>
@@ -44080,7 +44080,7 @@
         <v>1.3</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.33</v>
@@ -48519,6 +48519,224 @@
       </c>
       <c r="BP220" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>8238741</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>46048.69791666666</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="n">
+        <v>3</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['23', '58', '66']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="R221" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X221" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL221" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN221" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP221" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP221"/>
+  <dimension ref="A1:BP225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.91</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.08</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.18</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.45</v>
@@ -7241,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR31" t="n">
         <v>2.05</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR33" t="n">
         <v>1.38</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.91</v>
@@ -9203,7 +9203,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.64</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.4</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.01</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -11819,7 +11819,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.09</v>
@@ -13560,10 +13560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR60" t="n">
         <v>2.05</v>
@@ -13999,7 +13999,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14214,10 +14214,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.33</v>
@@ -15743,7 +15743,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR70" t="n">
         <v>1.5</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.4</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -18138,7 +18138,7 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ81" t="n">
         <v>1.55</v>
@@ -18795,7 +18795,7 @@
         <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19667,7 +19667,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -20100,10 +20100,10 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.18</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.64</v>
@@ -22283,7 +22283,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR100" t="n">
         <v>1.06</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.08</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ102" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -23809,7 +23809,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24245,7 +24245,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24896,10 +24896,10 @@
         <v>0.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -25550,7 +25550,7 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.3</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.8</v>
@@ -27079,7 +27079,7 @@
         <v>2</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -27515,7 +27515,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR124" t="n">
         <v>1.42</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.4</v>
@@ -28605,7 +28605,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -29259,7 +29259,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR132" t="n">
         <v>1.34</v>
@@ -30128,7 +30128,7 @@
         <v>2.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.91</v>
@@ -30346,7 +30346,7 @@
         <v>1.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.33</v>
@@ -30564,7 +30564,7 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ138" t="n">
         <v>1.55</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.18</v>
@@ -31003,7 +31003,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR140" t="n">
         <v>1.44</v>
@@ -32311,7 +32311,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -32529,7 +32529,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ152" t="n">
         <v>1</v>
@@ -34052,7 +34052,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.64</v>
@@ -34927,7 +34927,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR158" t="n">
         <v>1.24</v>
@@ -35796,7 +35796,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.55</v>
@@ -36017,7 +36017,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR163" t="n">
         <v>1.68</v>
@@ -36453,7 +36453,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR165" t="n">
         <v>1.72</v>
@@ -36889,7 +36889,7 @@
         <v>2</v>
       </c>
       <c r="AQ167" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR167" t="n">
         <v>1.6</v>
@@ -37104,7 +37104,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ168" t="n">
         <v>2.09</v>
@@ -38412,7 +38412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.58</v>
@@ -39284,7 +39284,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.64</v>
@@ -39938,10 +39938,10 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR181" t="n">
         <v>1.54</v>
@@ -40374,10 +40374,10 @@
         <v>0.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR183" t="n">
         <v>1.35</v>
@@ -41249,7 +41249,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ187" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR187" t="n">
         <v>1.63</v>
@@ -41903,7 +41903,7 @@
         <v>2</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR190" t="n">
         <v>1.64</v>
@@ -43644,7 +43644,7 @@
         <v>1.33</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.18</v>
@@ -44516,7 +44516,7 @@
         <v>1.33</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.3</v>
@@ -44952,10 +44952,10 @@
         <v>1.2</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AR204" t="n">
         <v>1.6</v>
@@ -45170,7 +45170,7 @@
         <v>1.7</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.55</v>
@@ -45391,7 +45391,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AR206" t="n">
         <v>1.17</v>
@@ -45609,7 +45609,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR207" t="n">
         <v>1.67</v>
@@ -46263,7 +46263,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AR210" t="n">
         <v>1.07</v>
@@ -46478,7 +46478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.64</v>
@@ -48737,6 +48737,878 @@
       </c>
       <c r="BP221" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>8238574</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>46052.69791666666</v>
+      </c>
+      <c r="F222" t="n">
+        <v>23</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>3</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>5</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>['56', '62', '90+10']</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['67', '75']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S222" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V222" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X222" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL222" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM222" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BN222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO222" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="BP222" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>8238724</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>46053.45833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="n">
+        <v>3</v>
+      </c>
+      <c r="N223" t="n">
+        <v>4</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['25', '45+1', '58']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R223" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S223" t="n">
+        <v>3</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V223" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X223" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BL223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM223" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BN223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO223" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP223" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>8238573</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>46053.58333333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['11', '49']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S224" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X224" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL224" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN224" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO224" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP224" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>8238751</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>46053.69791666666</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>4</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['36', '45+2', '84', '90+1']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R225" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S225" t="n">
+        <v>4</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X225" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL225" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM225" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN225" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO225" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP225" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP225"/>
+  <dimension ref="A1:BP227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.18</v>
@@ -3753,7 +3753,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR27" t="n">
         <v>2.26</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.91</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR38" t="n">
         <v>1.01</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ42" t="n">
         <v>1</v>
@@ -9857,7 +9857,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR43" t="n">
         <v>1.92</v>
@@ -12037,7 +12037,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR53" t="n">
         <v>1.08</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.58</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.55</v>
@@ -16615,7 +16615,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR74" t="n">
         <v>1.64</v>
@@ -17051,7 +17051,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR76" t="n">
         <v>1.01</v>
@@ -17266,7 +17266,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.91</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.67</v>
@@ -20539,7 +20539,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.64</v>
@@ -21629,7 +21629,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR97" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.08</v>
@@ -25553,7 +25553,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -26207,7 +26207,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR118" t="n">
         <v>1.3</v>
@@ -26640,7 +26640,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.64</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.25</v>
@@ -29695,7 +29695,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR134" t="n">
         <v>1.49</v>
@@ -29913,7 +29913,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR135" t="n">
         <v>1.03</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.09</v>
@@ -31654,7 +31654,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ143" t="n">
         <v>1</v>
@@ -34709,7 +34709,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR157" t="n">
         <v>1.35</v>
@@ -35360,7 +35360,7 @@
         <v>0.75</v>
       </c>
       <c r="AP160" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.08</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.45</v>
@@ -37979,7 +37979,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR172" t="n">
         <v>2.1</v>
@@ -40159,7 +40159,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR182" t="n">
         <v>1.72</v>
@@ -40810,7 +40810,7 @@
         <v>1.11</v>
       </c>
       <c r="AP185" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.45</v>
@@ -41464,7 +41464,7 @@
         <v>1.33</v>
       </c>
       <c r="AP188" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.33</v>
@@ -43865,7 +43865,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR199" t="n">
         <v>1.98</v>
@@ -44298,7 +44298,7 @@
         <v>2.11</v>
       </c>
       <c r="AP201" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ201" t="n">
         <v>2.09</v>
@@ -44519,7 +44519,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR202" t="n">
         <v>1.11</v>
@@ -45824,7 +45824,7 @@
         <v>1.8</v>
       </c>
       <c r="AP208" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ208" t="n">
         <v>1.91</v>
@@ -46045,7 +46045,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46914,7 +46914,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.09</v>
@@ -49609,6 +49609,442 @@
       </c>
       <c r="BP225" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>8238704</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>46054.35416666666</v>
+      </c>
+      <c r="F226" t="n">
+        <v>23</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>3</v>
+      </c>
+      <c r="R226" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S226" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V226" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X226" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL226" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM226" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO226" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP226" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>8238753</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>46054.45833333334</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R227" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S227" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T227" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V227" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X227" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL227" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN227" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO227" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP227" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP227"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.25</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.27</v>
@@ -4625,7 +4625,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -5497,7 +5497,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -7895,7 +7895,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.18</v>
@@ -10075,7 +10075,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.09</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.73</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -14871,7 +14871,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.45</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.64</v>
@@ -16833,7 +16833,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17048,7 +17048,7 @@
         <v>1.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.27</v>
@@ -18141,7 +18141,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -20972,10 +20972,10 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -21193,7 +21193,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.33</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.09</v>
@@ -25335,7 +25335,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25986,7 +25986,7 @@
         <v>2.4</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.91</v>
@@ -27294,7 +27294,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.45</v>
@@ -28387,7 +28387,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -29910,7 +29910,7 @@
         <v>1.17</v>
       </c>
       <c r="AP135" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ135" t="n">
         <v>0.73</v>
@@ -30567,7 +30567,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.18</v>
@@ -32965,7 +32965,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33183,7 +33183,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR150" t="n">
         <v>1.79</v>
@@ -34924,7 +34924,7 @@
         <v>0.5</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.67</v>
@@ -35799,7 +35799,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR162" t="n">
         <v>1.12</v>
@@ -36232,7 +36232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.58</v>
@@ -36671,7 +36671,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR166" t="n">
         <v>1.93</v>
@@ -39723,7 +39723,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR180" t="n">
         <v>1.29</v>
@@ -40592,10 +40592,10 @@
         <v>2.25</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR184" t="n">
         <v>1.25</v>
@@ -41028,7 +41028,7 @@
         <v>1</v>
       </c>
       <c r="AP186" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ186" t="n">
         <v>1.08</v>
@@ -44737,7 +44737,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ203" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AR203" t="n">
         <v>1.53</v>
@@ -45173,7 +45173,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AR205" t="n">
         <v>1.14</v>
@@ -45388,7 +45388,7 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ206" t="n">
         <v>0.91</v>
@@ -46260,7 +46260,7 @@
         <v>0.7</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ210" t="n">
         <v>0.67</v>
@@ -50045,6 +50045,442 @@
       </c>
       <c r="BP227" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>8238712</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>46054.58333333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>23</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>['16', '31']</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>8</v>
+      </c>
+      <c r="R228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V228" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X228" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL228" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM228" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO228" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP228" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>8238575</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>46054.69791666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2</v>
+      </c>
+      <c r="K229" t="n">
+        <v>2</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>4</v>
+      </c>
+      <c r="N229" t="n">
+        <v>5</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>['15', '37', '54', '64']</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="V229" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X229" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL229" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM229" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO229" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BP229" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.67</v>
@@ -3971,7 +3971,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.09</v>
@@ -8331,7 +8331,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR36" t="n">
         <v>2.12</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.08</v>
@@ -13345,7 +13345,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR59" t="n">
         <v>1.27</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.73</v>
@@ -17705,7 +17705,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR79" t="n">
         <v>1.07</v>
@@ -20536,7 +20536,7 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.27</v>
@@ -22065,7 +22065,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -25114,7 +25114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ113" t="n">
         <v>1.33</v>
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR117" t="n">
         <v>1.01</v>
@@ -30131,7 +30131,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR136" t="n">
         <v>1.04</v>
@@ -31000,7 +31000,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
         <v>0.91</v>
@@ -32744,7 +32744,7 @@
         <v>1.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.58</v>
@@ -33837,7 +33837,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR153" t="n">
         <v>2.14</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.18</v>
@@ -38197,7 +38197,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR173" t="n">
         <v>1.8</v>
@@ -39505,7 +39505,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR179" t="n">
         <v>1.25</v>
@@ -41682,7 +41682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.64</v>
@@ -44734,7 +44734,7 @@
         <v>2.33</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ203" t="n">
         <v>2.45</v>
@@ -45827,7 +45827,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR208" t="n">
         <v>1.43</v>
@@ -50481,6 +50481,224 @@
       </c>
       <c r="BP229" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>8238576</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>46055.69791666666</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T230" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V230" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X230" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BL230" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM230" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BN230" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP230" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3317,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.64</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.91</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -13124,7 +13124,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.64</v>
@@ -13781,7 +13781,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -18577,7 +18577,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.09</v>
@@ -23591,7 +23591,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.58</v>
@@ -26425,7 +26425,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ131" t="n">
         <v>1</v>
@@ -31221,7 +31221,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.67</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.25</v>
@@ -37107,7 +37107,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -40156,7 +40156,7 @@
         <v>1.13</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.27</v>
@@ -42557,7 +42557,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ193" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR193" t="n">
         <v>1.65</v>
@@ -44301,7 +44301,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ201" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR201" t="n">
         <v>1.62</v>
@@ -45606,7 +45606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.67</v>
@@ -48443,7 +48443,7 @@
         <v>2</v>
       </c>
       <c r="AQ220" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AR220" t="n">
         <v>1.75</v>
@@ -50699,6 +50699,224 @@
       </c>
       <c r="BP230" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>8238453</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>46056.69791666666</v>
+      </c>
+      <c r="F231" t="n">
+        <v>23</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3</v>
+      </c>
+      <c r="N231" t="n">
+        <v>3</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>['20', '39', '48']</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S231" t="n">
+        <v>3</v>
+      </c>
+      <c r="T231" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X231" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM231" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO231" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP231" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP231"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.73</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.17</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.64</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.67</v>
@@ -4843,7 +4843,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -5279,7 +5279,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6151,7 +6151,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>0.82</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR28" t="n">
         <v>0.77</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.08</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.91</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.67</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.64</v>
@@ -9421,7 +9421,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.27</v>
@@ -10075,7 +10075,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>0.95</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -11165,7 +11165,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11383,7 +11383,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR51" t="n">
         <v>0.83</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.25</v>
@@ -12255,7 +12255,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -13124,10 +13124,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.75</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.17</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.25</v>
@@ -14435,7 +14435,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -15304,10 +15304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -15525,7 +15525,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR69" t="n">
         <v>2.03</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR71" t="n">
         <v>0.92</v>
@@ -16179,7 +16179,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -16833,7 +16833,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17484,7 +17484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.08</v>
@@ -17702,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.75</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.33</v>
@@ -18356,10 +18356,10 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -19013,7 +19013,7 @@
         <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR85" t="n">
         <v>1.68</v>
@@ -19228,10 +19228,10 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>2.02</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR87" t="n">
         <v>1.81</v>
@@ -19882,7 +19882,7 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ89" t="n">
         <v>1</v>
@@ -20321,7 +20321,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR91" t="n">
         <v>0.95</v>
@@ -21190,10 +21190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -21411,7 +21411,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.73</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.91</v>
@@ -23152,7 +23152,7 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.67</v>
@@ -23370,10 +23370,10 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -24024,10 +24024,10 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.67</v>
@@ -24463,7 +24463,7 @@
         <v>2</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -24681,7 +24681,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR111" t="n">
         <v>2.29</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.67</v>
@@ -25768,10 +25768,10 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -26858,10 +26858,10 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -27297,7 +27297,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR123" t="n">
         <v>1.07</v>
@@ -27512,7 +27512,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.67</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.08</v>
@@ -27951,7 +27951,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR126" t="n">
         <v>1.71</v>
@@ -28166,10 +28166,10 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -28387,7 +28387,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -28823,7 +28823,7 @@
         <v>2</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ131" t="n">
         <v>1</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.67</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.27</v>
@@ -30785,7 +30785,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -31436,10 +31436,10 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR142" t="n">
         <v>1.14</v>
@@ -31875,7 +31875,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR144" t="n">
         <v>1.14</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.67</v>
@@ -32747,7 +32747,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -32962,10 +32962,10 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.67</v>
@@ -33834,7 +33834,7 @@
         <v>2.14</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.75</v>
@@ -34055,7 +34055,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR154" t="n">
         <v>1.15</v>
@@ -34270,10 +34270,10 @@
         <v>0.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR155" t="n">
         <v>1.35</v>
@@ -34488,10 +34488,10 @@
         <v>1.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR156" t="n">
         <v>1.47</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.27</v>
@@ -35142,7 +35142,7 @@
         <v>1.13</v>
       </c>
       <c r="AP159" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ159" t="n">
         <v>1.64</v>
@@ -35581,7 +35581,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR161" t="n">
         <v>1.57</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.25</v>
@@ -36671,7 +36671,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR166" t="n">
         <v>1.93</v>
@@ -37325,7 +37325,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR169" t="n">
         <v>1.68</v>
@@ -37540,10 +37540,10 @@
         <v>0.63</v>
       </c>
       <c r="AP170" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR170" t="n">
         <v>1.29</v>
@@ -37758,10 +37758,10 @@
         <v>1.14</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.73</v>
@@ -38415,7 +38415,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ175" t="n">
         <v>1</v>
@@ -38848,10 +38848,10 @@
         <v>1.13</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -39502,7 +39502,7 @@
         <v>1.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.75</v>
@@ -39720,7 +39720,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.67</v>
@@ -40156,7 +40156,7 @@
         <v>1.13</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.27</v>
@@ -40595,7 +40595,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR184" t="n">
         <v>1.25</v>
@@ -40813,7 +40813,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR185" t="n">
         <v>1.44</v>
@@ -41685,7 +41685,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR189" t="n">
         <v>1.58</v>
@@ -42121,7 +42121,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR191" t="n">
         <v>1.75</v>
@@ -42336,10 +42336,10 @@
         <v>1.13</v>
       </c>
       <c r="AP192" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR192" t="n">
         <v>1.2</v>
@@ -42554,7 +42554,7 @@
         <v>2.25</v>
       </c>
       <c r="AP193" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ193" t="n">
         <v>2.17</v>
@@ -42772,10 +42772,10 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR194" t="n">
         <v>1.43</v>
@@ -42993,7 +42993,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR195" t="n">
         <v>2.04</v>
@@ -43208,7 +43208,7 @@
         <v>1</v>
       </c>
       <c r="AP196" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ196" t="n">
         <v>1.08</v>
@@ -43426,7 +43426,7 @@
         <v>1.2</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ197" t="n">
         <v>1</v>
@@ -43647,7 +43647,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR198" t="n">
         <v>1.56</v>
@@ -44080,7 +44080,7 @@
         <v>1.3</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.33</v>
@@ -44737,7 +44737,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ203" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR203" t="n">
         <v>1.53</v>
@@ -45606,7 +45606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.67</v>
@@ -46699,7 +46699,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR212" t="n">
         <v>2.01</v>
@@ -46917,7 +46917,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AR213" t="n">
         <v>1.68</v>
@@ -47132,7 +47132,7 @@
         <v>0.91</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AQ214" t="n">
         <v>1.08</v>
@@ -47350,10 +47350,10 @@
         <v>1.2</v>
       </c>
       <c r="AP215" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR215" t="n">
         <v>1.18</v>
@@ -47568,7 +47568,7 @@
         <v>1.09</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ216" t="n">
         <v>1</v>
@@ -47786,7 +47786,7 @@
         <v>1.45</v>
       </c>
       <c r="AP217" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.33</v>
@@ -48007,7 +48007,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AR218" t="n">
         <v>1.76</v>
@@ -48222,10 +48222,10 @@
         <v>1.73</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR219" t="n">
         <v>2.19</v>
@@ -48658,10 +48658,10 @@
         <v>1.3</v>
       </c>
       <c r="AP221" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR221" t="n">
         <v>1.4</v>
@@ -50187,7 +50187,7 @@
         <v>1</v>
       </c>
       <c r="AQ228" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AR228" t="n">
         <v>1.04</v>
@@ -50838,7 +50838,7 @@
         <v>2.09</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AQ231" t="n">
         <v>2.17</v>
@@ -50917,6 +50917,1532 @@
       </c>
       <c r="BP231" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>8238456</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>46059.69791666666</v>
+      </c>
+      <c r="F232" t="n">
+        <v>24</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>3</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S232" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="T232" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X232" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM232" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO232" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BP232" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>8238754</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>46060.58333333334</v>
+      </c>
+      <c r="F233" t="n">
+        <v>24</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>3</v>
+      </c>
+      <c r="L233" t="n">
+        <v>2</v>
+      </c>
+      <c r="M233" t="n">
+        <v>3</v>
+      </c>
+      <c r="N233" t="n">
+        <v>5</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['3', '57']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['20', '21', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="R233" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X233" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BL233" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BN233" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO233" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BP233" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>8238705</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>46060.69791666666</v>
+      </c>
+      <c r="F234" t="n">
+        <v>24</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['51', '57']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['26', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S234" t="n">
+        <v>5</v>
+      </c>
+      <c r="T234" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X234" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM234" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO234" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP234" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8238455</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>46061.35416666666</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R235" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S235" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T235" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X235" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL235" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM235" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN235" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO235" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BP235" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>8238760</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>46061.45833333334</v>
+      </c>
+      <c r="F236" t="n">
+        <v>24</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>1</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>['5', '90']</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S236" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T236" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X236" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL236" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM236" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BN236" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP236" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>8238578</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>24</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>2</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>5</v>
+      </c>
+      <c r="N237" t="n">
+        <v>5</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['11', '28', '50', '53', '88']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S237" t="n">
+        <v>2</v>
+      </c>
+      <c r="T237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U237" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="V237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X237" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL237" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM237" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN237" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO237" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP237" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>8238756</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>46061.69791666666</v>
+      </c>
+      <c r="F238" t="n">
+        <v>24</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>2</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['59', '90+6']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>['45+2', '47']</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S238" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="T238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X238" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BL238" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM238" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN238" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO238" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP238" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.33</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.67</v>
@@ -4189,7 +4189,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.08</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.73</v>
@@ -7023,7 +7023,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>1</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR32" t="n">
         <v>0.87</v>
@@ -9639,7 +9639,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.67</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.64</v>
@@ -12909,7 +12909,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.37</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.5</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.17</v>
@@ -17487,7 +17487,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR78" t="n">
         <v>1.88</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.17</v>
@@ -19010,7 +19010,7 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ85" t="n">
         <v>1.33</v>
@@ -19885,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -22501,7 +22501,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR101" t="n">
         <v>1.38</v>
@@ -22719,7 +22719,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -22937,7 +22937,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.59</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.25</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.33</v>
@@ -27733,7 +27733,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR125" t="n">
         <v>2.2</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.67</v>
@@ -28820,7 +28820,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ130" t="n">
         <v>1.69</v>
@@ -29041,7 +29041,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -31657,7 +31657,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -32090,10 +32090,10 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR145" t="n">
         <v>1.92</v>
@@ -33398,7 +33398,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.64</v>
@@ -33619,7 +33619,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ152" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR152" t="n">
         <v>1.53</v>
@@ -35363,7 +35363,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR160" t="n">
         <v>1.33</v>
@@ -36668,7 +36668,7 @@
         <v>2.14</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.5</v>
@@ -36886,7 +36886,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.91</v>
@@ -38194,7 +38194,7 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.75</v>
@@ -38633,7 +38633,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ175" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR175" t="n">
         <v>1.54</v>
@@ -41031,7 +41031,7 @@
         <v>1</v>
       </c>
       <c r="AQ186" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR186" t="n">
         <v>1.04</v>
@@ -41900,7 +41900,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.25</v>
@@ -42118,7 +42118,7 @@
         <v>1.33</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ191" t="n">
         <v>1.08</v>
@@ -43211,7 +43211,7 @@
         <v>1</v>
       </c>
       <c r="AQ196" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR196" t="n">
         <v>1.3</v>
@@ -43429,7 +43429,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ197" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR197" t="n">
         <v>2.17</v>
@@ -47135,7 +47135,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR214" t="n">
         <v>1.7</v>
@@ -47571,7 +47571,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ216" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR216" t="n">
         <v>1.24</v>
@@ -48004,7 +48004,7 @@
         <v>1.3</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ218" t="n">
         <v>1.33</v>
@@ -48440,7 +48440,7 @@
         <v>2.2</v>
       </c>
       <c r="AP220" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ220" t="n">
         <v>2.17</v>
@@ -52443,6 +52443,442 @@
       </c>
       <c r="BP238" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>8238560</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>46062.60416666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2</v>
+      </c>
+      <c r="L239" t="n">
+        <v>2</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>3</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>['13', '25']</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S239" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T239" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U239" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V239" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X239" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL239" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO239" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP239" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>8238706</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>46062.69791666666</v>
+      </c>
+      <c r="F240" t="n">
+        <v>24</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['25', '65']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>2</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S240" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V240" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X240" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK240" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BL240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM240" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO240" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP240" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP240"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3317,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.75</v>
@@ -6148,7 +6148,7 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.33</v>
@@ -8113,7 +8113,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR35" t="n">
         <v>1.48</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.67</v>
@@ -13781,7 +13781,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ61" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR61" t="n">
         <v>2.23</v>
@@ -14214,7 +14214,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.67</v>
@@ -18577,7 +18577,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ83" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR83" t="n">
         <v>2</v>
@@ -20318,7 +20318,7 @@
         <v>1</v>
       </c>
       <c r="AP91" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.17</v>
@@ -22716,7 +22716,7 @@
         <v>1.6</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.92</v>
@@ -23591,7 +23591,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ106" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR106" t="n">
         <v>1</v>
@@ -26425,7 +26425,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR119" t="n">
         <v>2.07</v>
@@ -28384,7 +28384,7 @@
         <v>1.8</v>
       </c>
       <c r="AP128" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ128" t="n">
         <v>2.5</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ139" t="n">
         <v>1.33</v>
@@ -31221,7 +31221,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ141" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR141" t="n">
         <v>1.28</v>
@@ -35796,7 +35796,7 @@
         <v>1.38</v>
       </c>
       <c r="AP162" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ162" t="n">
         <v>1.67</v>
@@ -37107,7 +37107,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ168" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR168" t="n">
         <v>1.19</v>
@@ -39284,7 +39284,7 @@
         <v>1.33</v>
       </c>
       <c r="AP178" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.64</v>
@@ -42557,7 +42557,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ193" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR193" t="n">
         <v>1.65</v>
@@ -44301,7 +44301,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ201" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR201" t="n">
         <v>1.62</v>
@@ -44516,7 +44516,7 @@
         <v>1.33</v>
       </c>
       <c r="AP202" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.27</v>
@@ -48443,7 +48443,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ220" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR220" t="n">
         <v>1.75</v>
@@ -49094,7 +49094,7 @@
         <v>1.09</v>
       </c>
       <c r="AP223" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ223" t="n">
         <v>1.25</v>
@@ -50841,7 +50841,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ231" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AR231" t="n">
         <v>1.68</v>
@@ -52879,6 +52879,224 @@
       </c>
       <c r="BP240" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>8238670</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>46066.69791666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>25</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>2</v>
+      </c>
+      <c r="N241" t="n">
+        <v>3</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>['39', '85']</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T241" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM241" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BN241" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO241" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP241" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP241"/>
+  <dimension ref="A1:BP249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.17</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.08</v>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR19" t="n">
         <v>0.7</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.33</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR29" t="n">
         <v>2.48</v>
@@ -7238,10 +7238,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR31" t="n">
         <v>2.05</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR33" t="n">
         <v>1.38</v>
@@ -7895,7 +7895,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR34" t="n">
         <v>2.22</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ35" t="n">
         <v>2.23</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR36" t="n">
         <v>2.12</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR38" t="n">
         <v>1.01</v>
@@ -9200,10 +9200,10 @@
         <v>0</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.97</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.67</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.92</v>
@@ -9857,7 +9857,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR43" t="n">
         <v>1.92</v>
@@ -10511,7 +10511,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR46" t="n">
         <v>1.01</v>
@@ -10729,7 +10729,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -10947,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR48" t="n">
         <v>1.12</v>
@@ -11380,7 +11380,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.08</v>
@@ -11819,7 +11819,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR52" t="n">
         <v>1.78</v>
@@ -12034,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.73</v>
@@ -12252,7 +12252,7 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.08</v>
@@ -12470,7 +12470,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.92</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR59" t="n">
         <v>1.27</v>
@@ -13560,10 +13560,10 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR60" t="n">
         <v>2.05</v>
@@ -13999,7 +13999,7 @@
         <v>1</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR62" t="n">
         <v>1.16</v>
@@ -14217,7 +14217,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -14432,7 +14432,7 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.69</v>
@@ -14868,10 +14868,10 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR66" t="n">
         <v>1.63</v>
@@ -15089,7 +15089,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR67" t="n">
         <v>1.18</v>
@@ -15743,7 +15743,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR70" t="n">
         <v>1.5</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.64</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.73</v>
@@ -16830,7 +16830,7 @@
         <v>2</v>
       </c>
       <c r="AP75" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>2.5</v>
@@ -17051,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR76" t="n">
         <v>1.01</v>
@@ -17266,10 +17266,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR77" t="n">
         <v>1.18</v>
@@ -17705,7 +17705,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR79" t="n">
         <v>1.07</v>
@@ -17923,7 +17923,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR80" t="n">
         <v>1.22</v>
@@ -18138,10 +18138,10 @@
         <v>1.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR81" t="n">
         <v>1.43</v>
@@ -18792,10 +18792,10 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19664,10 +19664,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -20103,7 +20103,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR90" t="n">
         <v>1.03</v>
@@ -20536,10 +20536,10 @@
         <v>1.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR92" t="n">
         <v>1.5</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.64</v>
@@ -20975,7 +20975,7 @@
         <v>1</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR94" t="n">
         <v>1.05</v>
@@ -21408,7 +21408,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.67</v>
@@ -21844,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR98" t="n">
         <v>1.08</v>
@@ -22065,7 +22065,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR99" t="n">
         <v>1.67</v>
@@ -22283,7 +22283,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR100" t="n">
         <v>1.06</v>
@@ -22498,7 +22498,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -23155,7 +23155,7 @@
         <v>1</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -23588,7 +23588,7 @@
         <v>2</v>
       </c>
       <c r="AP106" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ106" t="n">
         <v>2.23</v>
@@ -23809,7 +23809,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR107" t="n">
         <v>1.94</v>
@@ -24245,7 +24245,7 @@
         <v>1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR109" t="n">
         <v>1.43</v>
@@ -24678,7 +24678,7 @@
         <v>1</v>
       </c>
       <c r="AP111" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.17</v>
@@ -24899,7 +24899,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR112" t="n">
         <v>0.99</v>
@@ -25114,10 +25114,10 @@
         <v>1.33</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ113" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR113" t="n">
         <v>1.46</v>
@@ -25335,7 +25335,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR114" t="n">
         <v>1.42</v>
@@ -25550,10 +25550,10 @@
         <v>1.2</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR115" t="n">
         <v>1.65</v>
@@ -25989,7 +25989,7 @@
         <v>1</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR117" t="n">
         <v>1.01</v>
@@ -26204,7 +26204,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ118" t="n">
         <v>0.73</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ119" t="n">
         <v>2.23</v>
@@ -26640,7 +26640,7 @@
         <v>1.2</v>
       </c>
       <c r="AP120" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.64</v>
@@ -27076,10 +27076,10 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ122" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR122" t="n">
         <v>1.57</v>
@@ -27294,7 +27294,7 @@
         <v>1.17</v>
       </c>
       <c r="AP123" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ123" t="n">
         <v>1.33</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR124" t="n">
         <v>1.42</v>
@@ -28605,7 +28605,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ129" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR129" t="n">
         <v>1.86</v>
@@ -29259,7 +29259,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR132" t="n">
         <v>1.34</v>
@@ -29474,7 +29474,7 @@
         <v>1.5</v>
       </c>
       <c r="AP133" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.64</v>
@@ -29695,7 +29695,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR134" t="n">
         <v>1.49</v>
@@ -30131,7 +30131,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR136" t="n">
         <v>1.04</v>
@@ -30346,10 +30346,10 @@
         <v>1.57</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR137" t="n">
         <v>1.47</v>
@@ -30564,10 +30564,10 @@
         <v>1.33</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ138" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR138" t="n">
         <v>1.6</v>
@@ -31000,10 +31000,10 @@
         <v>0.83</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ140" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR140" t="n">
         <v>1.44</v>
@@ -31218,7 +31218,7 @@
         <v>2</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ141" t="n">
         <v>2.23</v>
@@ -31654,7 +31654,7 @@
         <v>1.57</v>
       </c>
       <c r="AP143" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ143" t="n">
         <v>0.92</v>
@@ -31872,7 +31872,7 @@
         <v>0.71</v>
       </c>
       <c r="AP144" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.17</v>
@@ -32311,7 +32311,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR146" t="n">
         <v>1.69</v>
@@ -32529,7 +32529,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32744,7 +32744,7 @@
         <v>1.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ148" t="n">
         <v>1.69</v>
@@ -33183,7 +33183,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR150" t="n">
         <v>1.79</v>
@@ -33616,7 +33616,7 @@
         <v>1.38</v>
       </c>
       <c r="AP152" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.92</v>
@@ -33837,7 +33837,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR153" t="n">
         <v>2.14</v>
@@ -34709,7 +34709,7 @@
         <v>1</v>
       </c>
       <c r="AQ157" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR157" t="n">
         <v>1.35</v>
@@ -34924,10 +34924,10 @@
         <v>0.5</v>
       </c>
       <c r="AP158" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ158" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR158" t="n">
         <v>1.24</v>
@@ -35360,7 +35360,7 @@
         <v>0.75</v>
       </c>
       <c r="AP160" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ160" t="n">
         <v>1</v>
@@ -35578,7 +35578,7 @@
         <v>1</v>
       </c>
       <c r="AP161" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ161" t="n">
         <v>1.17</v>
@@ -35799,7 +35799,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR162" t="n">
         <v>1.12</v>
@@ -36017,7 +36017,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR163" t="n">
         <v>1.68</v>
@@ -36453,7 +36453,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR165" t="n">
         <v>1.72</v>
@@ -36889,7 +36889,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ167" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR167" t="n">
         <v>1.6</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.33</v>
@@ -38197,7 +38197,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ173" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR173" t="n">
         <v>1.8</v>
@@ -38412,7 +38412,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ174" t="n">
         <v>1.69</v>
@@ -39066,10 +39066,10 @@
         <v>1.5</v>
       </c>
       <c r="AP177" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR177" t="n">
         <v>2.01</v>
@@ -39505,7 +39505,7 @@
         <v>1</v>
       </c>
       <c r="AQ179" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR179" t="n">
         <v>1.25</v>
@@ -39723,7 +39723,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ180" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR180" t="n">
         <v>1.29</v>
@@ -39938,10 +39938,10 @@
         <v>0.67</v>
       </c>
       <c r="AP181" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR181" t="n">
         <v>1.54</v>
@@ -40159,7 +40159,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ182" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR182" t="n">
         <v>1.72</v>
@@ -40374,10 +40374,10 @@
         <v>0.44</v>
       </c>
       <c r="AP183" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ183" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR183" t="n">
         <v>1.35</v>
@@ -40592,7 +40592,7 @@
         <v>2.25</v>
       </c>
       <c r="AP184" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ184" t="n">
         <v>2.5</v>
@@ -40810,7 +40810,7 @@
         <v>1.11</v>
       </c>
       <c r="AP185" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
         <v>1.33</v>
@@ -41249,7 +41249,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ187" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR187" t="n">
         <v>1.63</v>
@@ -41464,10 +41464,10 @@
         <v>1.33</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ188" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR188" t="n">
         <v>1.67</v>
@@ -41682,7 +41682,7 @@
         <v>0.67</v>
       </c>
       <c r="AP189" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ189" t="n">
         <v>0.67</v>
@@ -41903,7 +41903,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ190" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR190" t="n">
         <v>1.64</v>
@@ -42990,7 +42990,7 @@
         <v>1.8</v>
       </c>
       <c r="AP195" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ195" t="n">
         <v>1.69</v>
@@ -43644,7 +43644,7 @@
         <v>1.33</v>
       </c>
       <c r="AP198" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198" t="n">
         <v>1.33</v>
@@ -43862,7 +43862,7 @@
         <v>1</v>
       </c>
       <c r="AP199" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ199" t="n">
         <v>0.73</v>
@@ -44083,7 +44083,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ200" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR200" t="n">
         <v>1.39</v>
@@ -44298,7 +44298,7 @@
         <v>2.11</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ201" t="n">
         <v>2.23</v>
@@ -44519,7 +44519,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ202" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR202" t="n">
         <v>1.11</v>
@@ -44734,7 +44734,7 @@
         <v>2.33</v>
       </c>
       <c r="AP203" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ203" t="n">
         <v>2.5</v>
@@ -44952,10 +44952,10 @@
         <v>1.2</v>
       </c>
       <c r="AP204" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ204" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR204" t="n">
         <v>1.6</v>
@@ -45173,7 +45173,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ205" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR205" t="n">
         <v>1.14</v>
@@ -45388,10 +45388,10 @@
         <v>1</v>
       </c>
       <c r="AP206" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ206" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR206" t="n">
         <v>1.17</v>
@@ -45609,7 +45609,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ207" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR207" t="n">
         <v>1.67</v>
@@ -45824,10 +45824,10 @@
         <v>1.8</v>
       </c>
       <c r="AP208" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ208" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR208" t="n">
         <v>1.43</v>
@@ -46263,7 +46263,7 @@
         <v>1</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR210" t="n">
         <v>1.07</v>
@@ -46478,7 +46478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP211" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ211" t="n">
         <v>1.64</v>
@@ -46696,7 +46696,7 @@
         <v>0.7</v>
       </c>
       <c r="AP212" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ212" t="n">
         <v>0.67</v>
@@ -46914,7 +46914,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ213" t="n">
         <v>1.08</v>
@@ -47789,7 +47789,7 @@
         <v>1</v>
       </c>
       <c r="AQ217" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR217" t="n">
         <v>1.31</v>
@@ -48876,10 +48876,10 @@
         <v>1</v>
       </c>
       <c r="AP222" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ222" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR222" t="n">
         <v>1.38</v>
@@ -49097,7 +49097,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ223" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR223" t="n">
         <v>1.18</v>
@@ -49312,10 +49312,10 @@
         <v>0.73</v>
       </c>
       <c r="AP224" t="n">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="AQ224" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR224" t="n">
         <v>1.56</v>
@@ -49533,7 +49533,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR225" t="n">
         <v>1.06</v>
@@ -49748,7 +49748,7 @@
         <v>0.8</v>
       </c>
       <c r="AP226" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AQ226" t="n">
         <v>0.73</v>
@@ -49966,10 +49966,10 @@
         <v>1.3</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ227" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR227" t="n">
         <v>1.69</v>
@@ -50402,10 +50402,10 @@
         <v>1.55</v>
       </c>
       <c r="AP229" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ229" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AR229" t="n">
         <v>1.18</v>
@@ -50620,10 +50620,10 @@
         <v>1.91</v>
       </c>
       <c r="AP230" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ230" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AR230" t="n">
         <v>1.45</v>
@@ -53097,6 +53097,1750 @@
       </c>
       <c r="BP241" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>8238485</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>46067.45833333334</v>
+      </c>
+      <c r="F242" t="n">
+        <v>25</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>2</v>
+      </c>
+      <c r="N242" t="n">
+        <v>3</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['26', '54']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R242" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S242" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T242" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V242" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X242" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BL242" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM242" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO242" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP242" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>8238580</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>46067.58333333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>25</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['41', '60']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R243" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X243" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL243" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM243" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN243" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO243" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP243" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8238780</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>46067.69791666666</v>
+      </c>
+      <c r="F244" t="n">
+        <v>25</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>3</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>5</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['17', '76', '90']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['26', '83']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R244" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S244" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="T244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="V244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X244" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL244" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM244" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BN244" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO244" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BP244" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8238762</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>46068.35416666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>2</v>
+      </c>
+      <c r="N245" t="n">
+        <v>3</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['56', '58']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V245" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL245" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO245" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BP245" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>8238757</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>46068.45833333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>25</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X246" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL246" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM246" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN246" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO246" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BP246" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>8238459</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>46068.45833333334</v>
+      </c>
+      <c r="F247" t="n">
+        <v>25</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['4', '90+3']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2</v>
+      </c>
+      <c r="S247" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X247" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL247" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM247" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN247" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO247" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP247" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>8238582</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>46068.58333333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>25</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['49', '70']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S248" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="T248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V248" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X248" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL248" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM248" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO248" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP248" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>8238581</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>46068.69791666666</v>
+      </c>
+      <c r="F249" t="n">
+        <v>25</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2</v>
+      </c>
+      <c r="L249" t="n">
+        <v>2</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>4</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['40', '82']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['7', '71']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S249" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="T249" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X249" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BL249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM249" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BN249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO249" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP249" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP249"/>
+  <dimension ref="A1:BP250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.85</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.33</v>
@@ -6369,7 +6369,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR27" t="n">
         <v>2.26</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.5</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR53" t="n">
         <v>1.08</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.46</v>
@@ -16615,7 +16615,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR74" t="n">
         <v>1.64</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.38</v>
@@ -21629,7 +21629,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR97" t="n">
         <v>1.39</v>
@@ -24896,7 +24896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.92</v>
@@ -26207,7 +26207,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR118" t="n">
         <v>1.3</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR135" t="n">
         <v>1.03</v>
@@ -30128,7 +30128,7 @@
         <v>2.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.69</v>
@@ -34052,7 +34052,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.67</v>
@@ -37104,7 +37104,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ168" t="n">
         <v>2.23</v>
@@ -37979,7 +37979,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR172" t="n">
         <v>2.1</v>
@@ -43865,7 +43865,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR199" t="n">
         <v>1.98</v>
@@ -45170,7 +45170,7 @@
         <v>1.7</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.54</v>
@@ -46045,7 +46045,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -49530,7 +49530,7 @@
         <v>0.73</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.62</v>
@@ -49751,7 +49751,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AR226" t="n">
         <v>1.4</v>
@@ -54841,6 +54841,224 @@
       </c>
       <c r="BP249" t="n">
         <v>1.1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8238579</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>46069.69791666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>25</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="n">
+        <v>2</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>['64', '76']</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>3</v>
+      </c>
+      <c r="R250" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S250" t="n">
+        <v>4</v>
+      </c>
+      <c r="T250" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="V250" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X250" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BL250" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM250" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN250" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO250" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP250" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -54562,7 +54562,7 @@
         <v>2</v>
       </c>
       <c r="AV248" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW248" t="n">
         <v>5</v>
@@ -54574,7 +54574,7 @@
         <v>7</v>
       </c>
       <c r="AZ248" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA248" t="n">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP250"/>
+  <dimension ref="A1:BP254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3" t="n">
         <v>1.69</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.92</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.33</v>
@@ -2663,7 +2663,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ13" t="n">
         <v>2.23</v>
@@ -3535,7 +3535,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR23" t="n">
         <v>2.6</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.17</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.46</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR39" t="n">
         <v>1.75</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.42</v>
@@ -10075,7 +10075,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR44" t="n">
         <v>1.44</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.33</v>
@@ -10729,7 +10729,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR47" t="n">
         <v>1.85</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.46</v>
@@ -11162,7 +11162,7 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.69</v>
@@ -12691,7 +12691,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR56" t="n">
         <v>2.23</v>
@@ -13778,7 +13778,7 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ61" t="n">
         <v>2.23</v>
@@ -13996,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="AP62" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.38</v>
@@ -14217,7 +14217,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR63" t="n">
         <v>1.03</v>
@@ -14653,7 +14653,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR65" t="n">
         <v>1.68</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.85</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.67</v>
@@ -16397,7 +16397,7 @@
         <v>1</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR73" t="n">
         <v>1.09</v>
@@ -16833,7 +16833,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ75" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR75" t="n">
         <v>1.87</v>
@@ -17702,7 +17702,7 @@
         <v>3</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.69</v>
@@ -18356,7 +18356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.69</v>
@@ -18795,7 +18795,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19228,7 +19228,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.33</v>
@@ -20757,7 +20757,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR93" t="n">
         <v>1.65</v>
@@ -21193,7 +21193,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR95" t="n">
         <v>1.73</v>
@@ -22062,7 +22062,7 @@
         <v>3</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.69</v>
@@ -22280,7 +22280,7 @@
         <v>0.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ100" t="n">
         <v>0.92</v>
@@ -23152,10 +23152,10 @@
         <v>0.4</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR104" t="n">
         <v>1.1</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.08</v>
@@ -26643,7 +26643,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR120" t="n">
         <v>1.33</v>
@@ -26858,7 +26858,7 @@
         <v>0.6</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.67</v>
@@ -27515,7 +27515,7 @@
         <v>1</v>
       </c>
       <c r="AQ124" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR124" t="n">
         <v>1.42</v>
@@ -27730,7 +27730,7 @@
         <v>1</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ125" t="n">
         <v>1</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.17</v>
@@ -28166,7 +28166,7 @@
         <v>1</v>
       </c>
       <c r="AP127" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.08</v>
@@ -28387,7 +28387,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ128" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR128" t="n">
         <v>1.07</v>
@@ -29256,7 +29256,7 @@
         <v>0.57</v>
       </c>
       <c r="AP132" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ132" t="n">
         <v>0.85</v>
@@ -29477,7 +29477,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ133" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR133" t="n">
         <v>2.1</v>
@@ -31436,7 +31436,7 @@
         <v>0.67</v>
       </c>
       <c r="AP142" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ142" t="n">
         <v>0.67</v>
@@ -32308,7 +32308,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.38</v>
@@ -32529,7 +32529,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ147" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR147" t="n">
         <v>1.37</v>
@@ -32965,7 +32965,7 @@
         <v>1</v>
       </c>
       <c r="AQ149" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR149" t="n">
         <v>1.43</v>
@@ -33401,7 +33401,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR151" t="n">
         <v>1.6</v>
@@ -33834,7 +33834,7 @@
         <v>2.14</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.69</v>
@@ -34270,7 +34270,7 @@
         <v>0.86</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.08</v>
@@ -35142,10 +35142,10 @@
         <v>1.13</v>
       </c>
       <c r="AP159" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ159" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR159" t="n">
         <v>1.23</v>
@@ -36014,10 +36014,10 @@
         <v>0.75</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR163" t="n">
         <v>1.68</v>
@@ -36671,7 +36671,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ166" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR166" t="n">
         <v>1.93</v>
@@ -37758,7 +37758,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.33</v>
@@ -37976,7 +37976,7 @@
         <v>1</v>
       </c>
       <c r="AP172" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ172" t="n">
         <v>0.92</v>
@@ -39287,7 +39287,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ178" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR178" t="n">
         <v>1.1</v>
@@ -39502,7 +39502,7 @@
         <v>1.67</v>
       </c>
       <c r="AP179" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ179" t="n">
         <v>1.69</v>
@@ -39720,7 +39720,7 @@
         <v>1.56</v>
       </c>
       <c r="AP180" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ180" t="n">
         <v>1.54</v>
@@ -39941,7 +39941,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ181" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR181" t="n">
         <v>1.54</v>
@@ -40595,7 +40595,7 @@
         <v>1</v>
       </c>
       <c r="AQ184" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR184" t="n">
         <v>1.25</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.92</v>
@@ -42336,7 +42336,7 @@
         <v>1.13</v>
       </c>
       <c r="AP192" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ192" t="n">
         <v>1.33</v>
@@ -43426,7 +43426,7 @@
         <v>1.2</v>
       </c>
       <c r="AP197" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ197" t="n">
         <v>0.92</v>
@@ -44737,7 +44737,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ203" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR203" t="n">
         <v>1.53</v>
@@ -46042,7 +46042,7 @@
         <v>0.89</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.92</v>
@@ -46263,7 +46263,7 @@
         <v>1</v>
       </c>
       <c r="AQ210" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR210" t="n">
         <v>1.07</v>
@@ -46481,7 +46481,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR211" t="n">
         <v>1.42</v>
@@ -47350,7 +47350,7 @@
         <v>1.2</v>
       </c>
       <c r="AP215" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.17</v>
@@ -47568,7 +47568,7 @@
         <v>1.09</v>
       </c>
       <c r="AP216" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ216" t="n">
         <v>0.92</v>
@@ -48222,7 +48222,7 @@
         <v>1.73</v>
       </c>
       <c r="AP219" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ219" t="n">
         <v>1.69</v>
@@ -49533,7 +49533,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ225" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR225" t="n">
         <v>1.06</v>
@@ -50187,7 +50187,7 @@
         <v>1</v>
       </c>
       <c r="AQ228" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR228" t="n">
         <v>1.04</v>
@@ -51928,7 +51928,7 @@
         <v>1.45</v>
       </c>
       <c r="AP236" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ236" t="n">
         <v>1.33</v>
@@ -52146,10 +52146,10 @@
         <v>2.45</v>
       </c>
       <c r="AP237" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ237" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AR237" t="n">
         <v>1.27</v>
@@ -52364,7 +52364,7 @@
         <v>1.18</v>
       </c>
       <c r="AP238" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ238" t="n">
         <v>1.17</v>
@@ -54329,7 +54329,7 @@
         <v>1</v>
       </c>
       <c r="AQ247" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AR247" t="n">
         <v>1.19</v>
@@ -55059,6 +55059,878 @@
       </c>
       <c r="BP250" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>8238577</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>46071.69791666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>24</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S251" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V251" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X251" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL251" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM251" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN251" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO251" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP251" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>8238763</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>46073.69791666666</v>
+      </c>
+      <c r="F252" t="n">
+        <v>26</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>2</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2</v>
+      </c>
+      <c r="L252" t="n">
+        <v>3</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>3</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['40', '44', '62']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S252" t="n">
+        <v>5</v>
+      </c>
+      <c r="T252" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X252" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM252" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO252" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP252" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>8238725</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>46074.45833333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>26</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['11', '61']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R253" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S253" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="T253" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X253" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL253" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM253" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO253" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="BP253" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>8238726</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>46074.58333333334</v>
+      </c>
+      <c r="F254" t="n">
+        <v>26</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Inter Milan</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>2</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>['75', '82']</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T254" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V254" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X254" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>24</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BL254" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM254" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO254" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP254" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP254"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.85</v>
@@ -2009,7 +2009,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.33</v>
@@ -6587,7 +6587,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR28" t="n">
         <v>0.77</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ44" t="n">
         <v>2.54</v>
@@ -11601,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR51" t="n">
         <v>0.83</v>
@@ -15086,7 +15086,7 @@
         <v>0.33</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.46</v>
@@ -15525,7 +15525,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR69" t="n">
         <v>2.03</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.38</v>
@@ -20321,7 +20321,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR91" t="n">
         <v>0.95</v>
@@ -24681,7 +24681,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR111" t="n">
         <v>2.29</v>
@@ -24896,7 +24896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP112" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ112" t="n">
         <v>0.92</v>
@@ -27951,7 +27951,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ126" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR126" t="n">
         <v>1.71</v>
@@ -30128,7 +30128,7 @@
         <v>2.5</v>
       </c>
       <c r="AP136" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.69</v>
@@ -31875,7 +31875,7 @@
         <v>1</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR144" t="n">
         <v>1.14</v>
@@ -34052,7 +34052,7 @@
         <v>0.57</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ154" t="n">
         <v>0.67</v>
@@ -35581,7 +35581,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ161" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR161" t="n">
         <v>1.57</v>
@@ -37104,7 +37104,7 @@
         <v>2.14</v>
       </c>
       <c r="AP168" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ168" t="n">
         <v>2.23</v>
@@ -42775,7 +42775,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR194" t="n">
         <v>1.43</v>
@@ -45170,7 +45170,7 @@
         <v>1.7</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.54</v>
@@ -47353,7 +47353,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ215" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR215" t="n">
         <v>1.18</v>
@@ -49530,7 +49530,7 @@
         <v>0.73</v>
       </c>
       <c r="AP225" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ225" t="n">
         <v>0.57</v>
@@ -52367,7 +52367,7 @@
         <v>2</v>
       </c>
       <c r="AQ238" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR238" t="n">
         <v>2.13</v>
@@ -54980,7 +54980,7 @@
         <v>0.73</v>
       </c>
       <c r="AP250" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ250" t="n">
         <v>0.92</v>
@@ -55931,6 +55931,224 @@
       </c>
       <c r="BP254" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>8238486</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>46074.69791666666</v>
+      </c>
+      <c r="F255" t="n">
+        <v>26</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S255" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="T255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X255" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL255" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM255" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO255" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP255" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
         <v>0.92</v>
@@ -1137,7 +1137,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ5" t="n">
         <v>1.46</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.67</v>
@@ -2881,7 +2881,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.54</v>
@@ -5279,7 +5279,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR22" t="n">
         <v>1.57</v>
@@ -5715,7 +5715,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.43</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>0.92</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.46</v>
@@ -7023,7 +7023,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR37" t="n">
         <v>1.4</v>
@@ -9639,7 +9639,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR42" t="n">
         <v>1.69</v>
@@ -10726,7 +10726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ47" t="n">
         <v>0.57</v>
@@ -11162,10 +11162,10 @@
         <v>3</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11383,7 +11383,7 @@
         <v>1</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>0.97</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.15</v>
@@ -12255,7 +12255,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.56</v>
@@ -12473,7 +12473,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR55" t="n">
         <v>2.05</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.69</v>
@@ -14435,7 +14435,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -14650,7 +14650,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.54</v>
@@ -15304,10 +15304,10 @@
         <v>0.33</v>
       </c>
       <c r="AP68" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR68" t="n">
         <v>1.12</v>
@@ -15522,7 +15522,7 @@
         <v>1</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ69" t="n">
         <v>1.15</v>
@@ -15740,7 +15740,7 @@
         <v>1</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.85</v>
@@ -16176,7 +16176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.67</v>
@@ -18359,7 +18359,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -18574,7 +18574,7 @@
         <v>2.33</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ83" t="n">
         <v>2.23</v>
@@ -19010,10 +19010,10 @@
         <v>0.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR85" t="n">
         <v>1.68</v>
@@ -19449,7 +19449,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
         <v>1.81</v>
@@ -19882,10 +19882,10 @@
         <v>1.25</v>
       </c>
       <c r="AP89" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR89" t="n">
         <v>1.42</v>
@@ -22062,7 +22062,7 @@
         <v>3</v>
       </c>
       <c r="AP99" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.69</v>
@@ -22719,7 +22719,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR102" t="n">
         <v>0.96</v>
@@ -23373,7 +23373,7 @@
         <v>2</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>2.17</v>
@@ -23806,7 +23806,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ107" t="n">
         <v>1.38</v>
@@ -24027,7 +24027,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -24242,7 +24242,7 @@
         <v>0.6</v>
       </c>
       <c r="AP109" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ109" t="n">
         <v>0.85</v>
@@ -24460,7 +24460,7 @@
         <v>1.4</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ110" t="n">
         <v>1.33</v>
@@ -25771,7 +25771,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR116" t="n">
         <v>1.56</v>
@@ -27512,7 +27512,7 @@
         <v>0.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ124" t="n">
         <v>0.57</v>
@@ -27948,7 +27948,7 @@
         <v>0.83</v>
       </c>
       <c r="AP126" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ126" t="n">
         <v>1.15</v>
@@ -28169,7 +28169,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR127" t="n">
         <v>1.17</v>
@@ -28602,7 +28602,7 @@
         <v>0.67</v>
       </c>
       <c r="AP129" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ129" t="n">
         <v>0.85</v>
@@ -28820,10 +28820,10 @@
         <v>1.5</v>
       </c>
       <c r="AP130" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -29041,7 +29041,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ131" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR131" t="n">
         <v>1.58</v>
@@ -30785,7 +30785,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ139" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR139" t="n">
         <v>1.07</v>
@@ -31657,7 +31657,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ143" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR143" t="n">
         <v>1.24</v>
@@ -32090,7 +32090,7 @@
         <v>0.86</v>
       </c>
       <c r="AP145" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ145" t="n">
         <v>1</v>
@@ -32308,7 +32308,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.38</v>
@@ -32747,7 +32747,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -32962,7 +32962,7 @@
         <v>2</v>
       </c>
       <c r="AP149" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ149" t="n">
         <v>2.54</v>
@@ -33398,7 +33398,7 @@
         <v>1.29</v>
       </c>
       <c r="AP151" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.69</v>
@@ -33619,7 +33619,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR152" t="n">
         <v>1.53</v>
@@ -34273,7 +34273,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR155" t="n">
         <v>1.35</v>
@@ -34706,7 +34706,7 @@
         <v>0.86</v>
       </c>
       <c r="AP157" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ157" t="n">
         <v>1.42</v>
@@ -36014,7 +36014,7 @@
         <v>0.75</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.57</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -36668,7 +36668,7 @@
         <v>2.14</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>2.54</v>
@@ -36886,7 +36886,7 @@
         <v>1.14</v>
       </c>
       <c r="AP167" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ167" t="n">
         <v>0.92</v>
@@ -37540,7 +37540,7 @@
         <v>0.63</v>
       </c>
       <c r="AP170" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ170" t="n">
         <v>0.67</v>
@@ -37761,7 +37761,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ171" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR171" t="n">
         <v>1.28</v>
@@ -38194,7 +38194,7 @@
         <v>1.88</v>
       </c>
       <c r="AP173" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ173" t="n">
         <v>1.69</v>
@@ -38415,7 +38415,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38633,7 +38633,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ175" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR175" t="n">
         <v>1.54</v>
@@ -38851,7 +38851,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR176" t="n">
         <v>1.49</v>
@@ -41246,7 +41246,7 @@
         <v>1</v>
       </c>
       <c r="AP187" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ187" t="n">
         <v>0.92</v>
@@ -41900,7 +41900,7 @@
         <v>1.33</v>
       </c>
       <c r="AP190" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ190" t="n">
         <v>1.38</v>
@@ -42118,10 +42118,10 @@
         <v>1.33</v>
       </c>
       <c r="AP191" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ191" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR191" t="n">
         <v>1.75</v>
@@ -42339,7 +42339,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ192" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR192" t="n">
         <v>1.2</v>
@@ -42993,7 +42993,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR195" t="n">
         <v>2.04</v>
@@ -43208,7 +43208,7 @@
         <v>1</v>
       </c>
       <c r="AP196" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ196" t="n">
         <v>1</v>
@@ -43429,7 +43429,7 @@
         <v>2</v>
       </c>
       <c r="AQ197" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR197" t="n">
         <v>2.17</v>
@@ -43647,7 +43647,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR198" t="n">
         <v>1.56</v>
@@ -46042,7 +46042,7 @@
         <v>0.89</v>
       </c>
       <c r="AP209" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ209" t="n">
         <v>0.92</v>
@@ -46917,7 +46917,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ213" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR213" t="n">
         <v>1.68</v>
@@ -47571,7 +47571,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ216" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR216" t="n">
         <v>1.24</v>
@@ -47786,7 +47786,7 @@
         <v>1.45</v>
       </c>
       <c r="AP217" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ217" t="n">
         <v>1.46</v>
@@ -48004,10 +48004,10 @@
         <v>1.3</v>
       </c>
       <c r="AP218" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ218" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR218" t="n">
         <v>1.76</v>
@@ -48225,7 +48225,7 @@
         <v>2</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR219" t="n">
         <v>2.19</v>
@@ -48440,7 +48440,7 @@
         <v>2.2</v>
       </c>
       <c r="AP220" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ220" t="n">
         <v>2.23</v>
@@ -51274,10 +51274,10 @@
         <v>1.58</v>
       </c>
       <c r="AP233" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AR233" t="n">
         <v>1.31</v>
@@ -51495,7 +51495,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ234" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR234" t="n">
         <v>1.69</v>
@@ -51713,7 +51713,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ235" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR235" t="n">
         <v>1.65</v>
@@ -52582,10 +52582,10 @@
         <v>1</v>
       </c>
       <c r="AP239" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AQ239" t="n">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR239" t="n">
         <v>1.8</v>
@@ -52800,7 +52800,7 @@
         <v>1.08</v>
       </c>
       <c r="AP240" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AQ240" t="n">
         <v>1</v>
@@ -55198,7 +55198,7 @@
         <v>1.64</v>
       </c>
       <c r="AP251" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="AQ251" t="n">
         <v>1.69</v>
@@ -56149,6 +56149,878 @@
       </c>
       <c r="BP255" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>8238671</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>46075.35416666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>26</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>2</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>2</v>
+      </c>
+      <c r="L256" t="n">
+        <v>3</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>3</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['21', '40', '83']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U256" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X256" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL256" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM256" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN256" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO256" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BP256" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>8238583</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>46075.45833333334</v>
+      </c>
+      <c r="F257" t="n">
+        <v>26</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>2</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="n">
+        <v>3</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['61', '81']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S257" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T257" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="V257" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X257" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL257" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM257" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN257" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO257" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BP257" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8238727</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>46075.58333333334</v>
+      </c>
+      <c r="F258" t="n">
+        <v>26</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>AC Milan</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S258" t="n">
+        <v>8</v>
+      </c>
+      <c r="T258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U258" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V258" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X258" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL258" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM258" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN258" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO258" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP258" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>8238584</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>46075.69791666666</v>
+      </c>
+      <c r="F259" t="n">
+        <v>26</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>3</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['59', '77', '86']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R259" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S259" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V259" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X259" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>13</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BK259" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL259" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM259" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BN259" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO259" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP259" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.69</v>
@@ -4843,7 +4843,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR20" t="n">
         <v>2.18</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.57</v>
@@ -6151,7 +6151,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR26" t="n">
         <v>0.82</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.92</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.69</v>
@@ -9421,7 +9421,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR41" t="n">
         <v>2.21</v>
@@ -10293,7 +10293,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR45" t="n">
         <v>0.95</v>
@@ -13124,10 +13124,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -13342,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.69</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR71" t="n">
         <v>0.92</v>
@@ -16179,7 +16179,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR72" t="n">
         <v>1.5</v>
@@ -17920,7 +17920,7 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.46</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR86" t="n">
         <v>2.02</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -21411,7 +21411,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR96" t="n">
         <v>1.29</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="AP97" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.92</v>
@@ -24024,7 +24024,7 @@
         <v>1.8</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.57</v>
@@ -24463,7 +24463,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR110" t="n">
         <v>1.74</v>
@@ -25332,7 +25332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.54</v>
@@ -26861,7 +26861,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR121" t="n">
         <v>1.13</v>
@@ -27297,7 +27297,7 @@
         <v>1</v>
       </c>
       <c r="AQ123" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR123" t="n">
         <v>1.07</v>
@@ -29038,7 +29038,7 @@
         <v>1.33</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ131" t="n">
         <v>0.86</v>
@@ -31439,7 +31439,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ142" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR142" t="n">
         <v>1.14</v>
@@ -32526,7 +32526,7 @@
         <v>0.43</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ147" t="n">
         <v>0.57</v>
@@ -33180,7 +33180,7 @@
         <v>1.14</v>
       </c>
       <c r="AP150" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ150" t="n">
         <v>1.54</v>
@@ -34055,7 +34055,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ154" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR154" t="n">
         <v>1.15</v>
@@ -34488,10 +34488,10 @@
         <v>1.43</v>
       </c>
       <c r="AP156" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR156" t="n">
         <v>1.47</v>
@@ -36450,7 +36450,7 @@
         <v>1.38</v>
       </c>
       <c r="AP165" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.38</v>
@@ -37325,7 +37325,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ169" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR169" t="n">
         <v>1.68</v>
@@ -37543,7 +37543,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ170" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR170" t="n">
         <v>1.29</v>
@@ -38630,7 +38630,7 @@
         <v>1.33</v>
       </c>
       <c r="AP175" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ175" t="n">
         <v>0.86</v>
@@ -40156,7 +40156,7 @@
         <v>1.13</v>
       </c>
       <c r="AP182" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.42</v>
@@ -40813,7 +40813,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR185" t="n">
         <v>1.44</v>
@@ -41685,7 +41685,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ189" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR189" t="n">
         <v>1.58</v>
@@ -42554,7 +42554,7 @@
         <v>2.25</v>
       </c>
       <c r="AP193" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ193" t="n">
         <v>2.23</v>
@@ -45606,7 +45606,7 @@
         <v>0.5</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ207" t="n">
         <v>0.85</v>
@@ -46699,7 +46699,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ212" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR212" t="n">
         <v>2.01</v>
@@ -47132,7 +47132,7 @@
         <v>0.91</v>
       </c>
       <c r="AP214" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ214" t="n">
         <v>1</v>
@@ -48661,7 +48661,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ221" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR221" t="n">
         <v>1.4</v>
@@ -50838,7 +50838,7 @@
         <v>2.09</v>
       </c>
       <c r="AP231" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ231" t="n">
         <v>2.23</v>
@@ -51059,7 +51059,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ232" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR232" t="n">
         <v>1.37</v>
@@ -51492,7 +51492,7 @@
         <v>1.09</v>
       </c>
       <c r="AP234" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ234" t="n">
         <v>1</v>
@@ -51710,7 +51710,7 @@
         <v>1.18</v>
       </c>
       <c r="AP235" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AQ235" t="n">
         <v>1.46</v>
@@ -51931,7 +51931,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ236" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR236" t="n">
         <v>1.2</v>
@@ -57021,6 +57021,442 @@
       </c>
       <c r="BP259" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>8238782</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>46076.60416666666</v>
+      </c>
+      <c r="F260" t="n">
+        <v>26</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S260" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U260" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X260" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BL260" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM260" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN260" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO260" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP260" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>8238781</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>46076.69791666666</v>
+      </c>
+      <c r="F261" t="n">
+        <v>26</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S261" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V261" t="n">
+        <v>3</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X261" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO261" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP261" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Italy Serie A_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.15</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR27" t="n">
         <v>2.26</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.86</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.92</v>
@@ -7892,7 +7892,7 @@
         <v>3</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.54</v>
@@ -9636,7 +9636,7 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.86</v>
@@ -11165,7 +11165,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR49" t="n">
         <v>1.9</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AP52" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.38</v>
@@ -12037,7 +12037,7 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR53" t="n">
         <v>1.08</v>
@@ -14435,7 +14435,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR64" t="n">
         <v>1.17</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.54</v>
@@ -16615,7 +16615,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR74" t="n">
         <v>1.64</v>
@@ -17484,7 +17484,7 @@
         <v>1.33</v>
       </c>
       <c r="AP78" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ78" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR82" t="n">
         <v>1.17</v>
@@ -18792,7 +18792,7 @@
         <v>0.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.57</v>
@@ -21190,7 +21190,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ95" t="n">
         <v>2.54</v>
@@ -21629,7 +21629,7 @@
         <v>1</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR97" t="n">
         <v>1.39</v>
@@ -22934,7 +22934,7 @@
         <v>1</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ103" t="n">
         <v>1</v>
@@ -24027,7 +24027,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR108" t="n">
         <v>1.67</v>
@@ -25768,7 +25768,7 @@
         <v>0.4</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.46</v>
@@ -26207,7 +26207,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ118" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR118" t="n">
         <v>1.3</v>
@@ -27076,7 +27076,7 @@
         <v>1.67</v>
       </c>
       <c r="AP122" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ122" t="n">
         <v>1.38</v>
@@ -28823,7 +28823,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR130" t="n">
         <v>1.7</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.42</v>
@@ -29913,7 +29913,7 @@
         <v>1</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR135" t="n">
         <v>1.03</v>
@@ -32747,7 +32747,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ148" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR148" t="n">
         <v>1.55</v>
@@ -36235,7 +36235,7 @@
         <v>1</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR164" t="n">
         <v>1.07</v>
@@ -37322,7 +37322,7 @@
         <v>1.25</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ169" t="n">
         <v>1.23</v>
@@ -37979,7 +37979,7 @@
         <v>2</v>
       </c>
       <c r="AQ172" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR172" t="n">
         <v>2.1</v>
@@ -38415,7 +38415,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ174" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR174" t="n">
         <v>1.45</v>
@@ -38848,7 +38848,7 @@
         <v>1.13</v>
       </c>
       <c r="AP176" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ176" t="n">
         <v>1</v>
@@ -41464,7 +41464,7 @@
         <v>1.33</v>
       </c>
       <c r="AP188" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ188" t="n">
         <v>1.46</v>
@@ -42772,7 +42772,7 @@
         <v>1</v>
       </c>
       <c r="AP194" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ194" t="n">
         <v>1.15</v>
@@ -42993,7 +42993,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ195" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR195" t="n">
         <v>2.04</v>
@@ -43865,7 +43865,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ199" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR199" t="n">
         <v>1.98</v>
@@ -44080,7 +44080,7 @@
         <v>1.3</v>
       </c>
       <c r="AP200" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ200" t="n">
         <v>1.46</v>
@@ -44298,7 +44298,7 @@
         <v>2.11</v>
       </c>
       <c r="AP201" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ201" t="n">
         <v>2.23</v>
@@ -46045,7 +46045,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ209" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR209" t="n">
         <v>1.8</v>
@@ -46914,7 +46914,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ213" t="n">
         <v>1</v>
@@ -48225,7 +48225,7 @@
         <v>2</v>
       </c>
       <c r="AQ219" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR219" t="n">
         <v>2.19</v>
@@ -48658,7 +48658,7 @@
         <v>1.3</v>
       </c>
       <c r="AP221" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ221" t="n">
         <v>1.23</v>
@@ -49751,7 +49751,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ226" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR226" t="n">
         <v>1.4</v>
@@ -49966,7 +49966,7 @@
         <v>1.3</v>
       </c>
       <c r="AP227" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ227" t="n">
         <v>1.42</v>
@@ -51056,7 +51056,7 @@
         <v>0.64</v>
       </c>
       <c r="AP232" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ232" t="n">
         <v>0.62</v>
@@ -51277,7 +51277,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ233" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR233" t="n">
         <v>1.31</v>
@@ -53236,7 +53236,7 @@
         <v>0.67</v>
       </c>
       <c r="AP242" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AQ242" t="n">
         <v>0.85</v>
@@ -54983,7 +54983,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ250" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AR250" t="n">
         <v>1.09</v>
@@ -56509,7 +56509,7 @@
         <v>2</v>
       </c>
       <c r="AQ257" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AR257" t="n">
         <v>1.88</v>
@@ -57457,6 +57457,660 @@
       </c>
       <c r="BP261" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>8238487</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>46080.69791666666</v>
+      </c>
+      <c r="F262" t="n">
+        <v>27</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S262" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V262" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X262" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO262" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP262" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>8238585</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>46081.45833333334</v>
+      </c>
+      <c r="F263" t="n">
+        <v>27</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>3</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>4</v>
+      </c>
+      <c r="L263" t="n">
+        <v>3</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>4</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>['18', '36', '44']</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R263" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S263" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X263" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO263" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP263" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8238761</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Italy Serie A</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>46081.58333333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>3</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['2', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>7</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S264" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X264" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO264" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BP264" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
